--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_SOx.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>0.00398238079086837</v>
+        <v>0.005772720676850061</v>
       </c>
       <c r="C2">
-        <v>0.00069</v>
+        <v>0.0010002</v>
       </c>
       <c r="D2">
-        <v>0.0001956127862692642</v>
+        <v>0.0002835534910529247</v>
       </c>
       <c r="E2">
-        <v>2.761467993564943E-05</v>
+        <v>4.002927952411096E-05</v>
       </c>
       <c r="F2">
-        <v>0.0005076742083235189</v>
+        <v>0.00073590687415244</v>
       </c>
       <c r="G2">
-        <v>6.530890999649232E-05</v>
+        <v>9.46695243166545E-05</v>
       </c>
       <c r="H2">
-        <v>2.385580682968409E-05</v>
+        <v>3.458054781311598E-05</v>
       </c>
       <c r="I2">
-        <v>0.005492447182222978</v>
+        <v>0.007961660393709305</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>0.004113081834908925</v>
+        <v>0.00596218036416798</v>
       </c>
       <c r="C3">
-        <v>0.0007618749999999999</v>
+        <v>0.0011043875</v>
       </c>
       <c r="D3">
-        <v>0.0001986692360547214</v>
+        <v>0.0002879840143506268</v>
       </c>
       <c r="E3">
-        <v>2.761467993564943E-05</v>
+        <v>4.002927952411096E-05</v>
       </c>
       <c r="F3">
-        <v>0.0004899940120137444</v>
+        <v>0.0007102782765451409</v>
       </c>
       <c r="G3">
-        <v>5.186295793839097E-05</v>
+        <v>7.517873989851979E-05</v>
       </c>
       <c r="H3">
-        <v>2.202074476586224E-05</v>
+        <v>3.192050567364552E-05</v>
       </c>
       <c r="I3">
-        <v>0.005665118465617292</v>
+        <v>0.008211958680160022</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>0.004166429199823436</v>
+        <v>0.00603951084878754</v>
       </c>
       <c r="C4">
-        <v>0.0007043749999999999</v>
+        <v>0.0010210375</v>
       </c>
       <c r="D4">
-        <v>0.0002017256858401787</v>
+        <v>0.0002924145376483287</v>
       </c>
       <c r="E4">
-        <v>2.608053105033557E-05</v>
+        <v>3.780543066166033E-05</v>
       </c>
       <c r="F4">
-        <v>0.0004571593617241637</v>
+        <v>0.0006626823095601571</v>
       </c>
       <c r="G4">
-        <v>5.186295793839097E-05</v>
+        <v>7.517873989851979E-05</v>
       </c>
       <c r="H4">
-        <v>2.018568270204038E-05</v>
+        <v>2.926046353417505E-05</v>
       </c>
       <c r="I4">
-        <v>0.005627818419078545</v>
+        <v>0.00815788983009038</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>0.004505184967030592</v>
+        <v>0.006530559426121742</v>
       </c>
       <c r="C5">
-        <v>0.0005893749999999999</v>
+        <v>0.0008543375000000001</v>
       </c>
       <c r="D5">
-        <v>0.0002108950351965504</v>
+        <v>0.0003057061075414345</v>
       </c>
       <c r="E5">
-        <v>4.449031767410186E-05</v>
+        <v>6.449161701106765E-05</v>
       </c>
       <c r="F5">
-        <v>0.0004495821347342604</v>
+        <v>0.0006516986248713148</v>
       </c>
       <c r="G5">
-        <v>4.99421076443765E-05</v>
+        <v>7.239434212450056E-05</v>
       </c>
       <c r="H5">
-        <v>1.835062063821853E-05</v>
+        <v>2.660042139470459E-05</v>
       </c>
       <c r="I5">
-        <v>0.005867820182918099</v>
+        <v>0.008505788039064764</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>0.005142685977759019</v>
+        <v>0.007454658717325468</v>
       </c>
       <c r="C6">
-        <v>0.0005606249999999998</v>
+        <v>0.0008126625</v>
       </c>
       <c r="D6">
-        <v>0.0001925563364838069</v>
+        <v>0.0002791229677552227</v>
       </c>
       <c r="E6">
-        <v>9.818552866008687E-05</v>
+        <v>0.000142326327196839</v>
       </c>
       <c r="F6">
-        <v>0.0003788613494951635</v>
+        <v>0.0005491842344421198</v>
       </c>
       <c r="G6">
-        <v>2.497105382218825E-05</v>
+        <v>3.619717106225028E-05</v>
       </c>
       <c r="H6">
-        <v>1.651555857439667E-05</v>
+        <v>2.394037925523414E-05</v>
       </c>
       <c r="I6">
-        <v>0.00641440080479466</v>
+        <v>0.009298092297037135</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>0.005489443849703349</v>
+        <v>0.007957306867352595</v>
       </c>
       <c r="C7">
-        <v>0.0002156249999999999</v>
+        <v>0.0003125624999999999</v>
       </c>
       <c r="D7">
-        <v>0.0001314273407746619</v>
+        <v>0.0001905125018011837</v>
       </c>
       <c r="E7">
-        <v>0.0001027879753160284</v>
+        <v>0.0001489978737841908</v>
       </c>
       <c r="F7">
-        <v>0.0002449970060068722</v>
+        <v>0.0003551391382725705</v>
       </c>
       <c r="G7">
-        <v>2.497105382218825E-05</v>
+        <v>3.619717106225028E-05</v>
       </c>
       <c r="H7">
-        <v>1.835062063821853E-05</v>
+        <v>2.660042139470459E-05</v>
       </c>
       <c r="I7">
-        <v>0.006227602846261318</v>
+        <v>0.009027316473667495</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>0.00417709867280634</v>
+        <v>0.006054976945711454</v>
       </c>
       <c r="C8">
-        <v>0.000273125</v>
+        <v>0.0003959125</v>
       </c>
       <c r="D8">
-        <v>0.000180330537341978</v>
+        <v>0.0002614008745644149</v>
       </c>
       <c r="E8">
-        <v>6.136595541255427E-05</v>
+        <v>8.895395449802432E-05</v>
       </c>
       <c r="F8">
-        <v>0.0001818534477576783</v>
+        <v>0.0002636084325322172</v>
       </c>
       <c r="G8">
-        <v>2.305020352817376E-05</v>
+        <v>3.341277328823101E-05</v>
       </c>
       <c r="H8">
-        <v>3.670124127643706E-06</v>
+        <v>5.320084278940919E-06</v>
       </c>
       <c r="I8">
-        <v>0.004900493940974368</v>
+        <v>0.007103585564873282</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>0.003326208202419863</v>
+        <v>0.004821555716029488</v>
       </c>
       <c r="C9">
-        <v>0.0002875</v>
+        <v>0.00041675</v>
       </c>
       <c r="D9">
-        <v>0.0001130886420619184</v>
+        <v>0.000163929362014972</v>
       </c>
       <c r="E9">
-        <v>0.0001165953152838531</v>
+        <v>0.0001690125135462463</v>
       </c>
       <c r="F9">
-        <v>8.334949688893591E-05</v>
+        <v>0.0001208205315772662</v>
       </c>
       <c r="G9">
-        <v>2.689190411620272E-05</v>
+        <v>3.898156883626951E-05</v>
       </c>
       <c r="H9">
-        <v>5.50518619146556E-06</v>
+        <v>7.98012641841138E-06</v>
       </c>
       <c r="I9">
-        <v>0.003959138746962239</v>
+        <v>0.005739029818422653</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>0.002755391397834578</v>
+        <v>0.003994119530600211</v>
       </c>
       <c r="C10">
-        <v>0.00014375</v>
+        <v>0.000208375</v>
       </c>
       <c r="D10">
-        <v>9.474994334917484E-05</v>
+        <v>0.0001373462222287603</v>
       </c>
       <c r="E10">
-        <v>5.829765764192657E-05</v>
+        <v>8.450625677312313E-05</v>
       </c>
       <c r="F10">
-        <v>7.829801222900042E-05</v>
+        <v>0.000113498075118038</v>
       </c>
       <c r="G10">
-        <v>3.265445499824616E-05</v>
+        <v>4.733476215832725E-05</v>
       </c>
       <c r="H10">
-        <v>1.835062063821853E-06</v>
+        <v>2.660042139470459E-06</v>
       </c>
       <c r="I10">
-        <v>0.003164976528116749</v>
+        <v>0.004587839889017931</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>0.001957848292362614</v>
+        <v>0.002838028785537806</v>
       </c>
       <c r="C11">
-        <v>0.0002875</v>
+        <v>0.00041675</v>
       </c>
       <c r="D11">
-        <v>4.890319656731604E-05</v>
+        <v>7.088837276323117E-05</v>
       </c>
       <c r="E11">
-        <v>2.761467993564943E-05</v>
+        <v>4.002927952411096E-05</v>
       </c>
       <c r="F11">
-        <v>8.587523921890364E-05</v>
+        <v>0.0001244817598068804</v>
       </c>
       <c r="G11">
-        <v>2.305020352817376E-05</v>
+        <v>3.341277328823101E-05</v>
       </c>
       <c r="H11">
-        <v>7.340248255287412E-06</v>
+        <v>1.064016855788184E-05</v>
       </c>
       <c r="I11">
-        <v>0.002438131859867944</v>
+        <v>0.003534231139478141</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.00120298307882226</v>
+        <v>0.001743802428171051</v>
       </c>
       <c r="C12">
-        <v>0.0002875</v>
+        <v>0.00041675</v>
       </c>
       <c r="D12">
-        <v>2.750804806911526E-05</v>
+        <v>3.987470967931753E-05</v>
       </c>
       <c r="E12">
-        <v>1.380733996782471E-05</v>
+        <v>2.001463976205548E-05</v>
       </c>
       <c r="F12">
-        <v>4.798910426938736E-05</v>
+        <v>6.956333636266844E-05</v>
       </c>
       <c r="G12">
-        <v>1.728765264613033E-05</v>
+        <v>2.505957996617327E-05</v>
       </c>
       <c r="H12">
-        <v>3.670124127643706E-06</v>
+        <v>5.320084278940919E-06</v>
       </c>
       <c r="I12">
-        <v>0.001600745347902361</v>
+        <v>0.002320384778220207</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.000853557838632202</v>
+        <v>0.00123728775391294</v>
       </c>
       <c r="C13">
-        <v>0.0004312499999999998</v>
+        <v>0.0006251249999999998</v>
       </c>
       <c r="D13">
-        <v>3.056449785457253E-05</v>
+        <v>4.43052329770195E-05</v>
       </c>
       <c r="E13">
-        <v>9.204893311883142E-06</v>
+        <v>1.334309317470365E-05</v>
       </c>
       <c r="F13">
-        <v>5.051484659935511E-05</v>
+        <v>7.32245645922826E-05</v>
       </c>
       <c r="G13">
-        <v>2.112935323415929E-05</v>
+        <v>3.062837551421176E-05</v>
       </c>
       <c r="I13">
-        <v>0.001396221429632172</v>
+        <v>0.002023914020171158</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.0005628146998481082</v>
+        <v>0.0008158366127363453</v>
       </c>
       <c r="C14">
-        <v>0.00046</v>
+        <v>0.0006668000000000002</v>
       </c>
       <c r="D14">
-        <v>1.833869871274351E-05</v>
+        <v>2.658313978621168E-05</v>
       </c>
       <c r="E14">
-        <v>4.602446655941571E-06</v>
+        <v>6.671546587351826E-06</v>
       </c>
       <c r="F14">
-        <v>5.556633125929061E-05</v>
+        <v>8.054702105151086E-05</v>
       </c>
       <c r="G14">
-        <v>3.073360470423169E-05</v>
+        <v>4.4550364384308E-05</v>
       </c>
       <c r="H14">
-        <v>1.835062063821853E-06</v>
+        <v>2.660042139470459E-06</v>
       </c>
       <c r="I14">
-        <v>0.001133890843244138</v>
+        <v>0.001643648726685198</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.000429446287561827</v>
+        <v>0.0006225104011874481</v>
       </c>
       <c r="C15">
-        <v>0.000345</v>
+        <v>0.0005001</v>
       </c>
       <c r="D15">
-        <v>3.362094764002978E-05</v>
+        <v>4.873575627472142E-05</v>
       </c>
       <c r="E15">
-        <v>6.136595541255429E-06</v>
+        <v>8.895395449802434E-06</v>
       </c>
       <c r="F15">
-        <v>4.293761960945182E-05</v>
+        <v>6.224087990344022E-05</v>
       </c>
       <c r="G15">
-        <v>2.689190411620272E-05</v>
+        <v>3.898156883626951E-05</v>
       </c>
       <c r="H15">
-        <v>3.670124127643706E-06</v>
+        <v>5.320084278940919E-06</v>
       </c>
       <c r="I15">
-        <v>0.0008877034785964104</v>
+        <v>0.001286784085930622</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.0003921031321216681</v>
+        <v>0.0005683790619537568</v>
       </c>
       <c r="C16">
-        <v>0.000129375</v>
+        <v>0.0001875375</v>
       </c>
       <c r="D16">
-        <v>3.973384721094428E-05</v>
+        <v>5.759680287012532E-05</v>
       </c>
       <c r="E16">
-        <v>4.602446655941571E-06</v>
+        <v>6.671546587351826E-06</v>
       </c>
       <c r="F16">
-        <v>4.041187727948407E-05</v>
+        <v>5.857965167382605E-05</v>
       </c>
       <c r="G16">
-        <v>2.305020352817376E-05</v>
+        <v>3.341277328823101E-05</v>
       </c>
       <c r="H16">
-        <v>1.835062063821853E-06</v>
+        <v>2.660042139470459E-06</v>
       </c>
       <c r="I16">
-        <v>0.0006311115688600335</v>
+        <v>0.0009148373785127615</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,28 +870,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.0007895410007347872</v>
+        <v>0.001144491172369469</v>
       </c>
       <c r="C17">
-        <v>0.0001868749999999999</v>
+        <v>0.0002708875</v>
       </c>
       <c r="D17">
-        <v>6.112899570914506E-05</v>
+        <v>8.861046595403899E-05</v>
       </c>
       <c r="E17">
-        <v>4.602446655941571E-06</v>
+        <v>6.671546587351826E-06</v>
       </c>
       <c r="F17">
-        <v>9.345246620880695E-05</v>
+        <v>0.0001354654444957228</v>
       </c>
       <c r="G17">
-        <v>3.457530529226066E-05</v>
+        <v>5.011915993234654E-05</v>
       </c>
       <c r="H17">
-        <v>5.50518619146556E-06</v>
+        <v>7.98012641841138E-06</v>
       </c>
       <c r="I17">
-        <v>0.001175680400792407</v>
+        <v>0.001704225415757341</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>0.001739124096213112</v>
+        <v>0.002520973798597616</v>
       </c>
       <c r="C18">
-        <v>0.000115</v>
+        <v>0.0001667</v>
       </c>
       <c r="D18">
-        <v>9.780639313463209E-05</v>
+        <v>0.0001417767455264623</v>
       </c>
       <c r="E18">
-        <v>7.363914649506513E-05</v>
+        <v>0.0001067447453976292</v>
       </c>
       <c r="F18">
-        <v>0.0002146880980472592</v>
+        <v>0.0003112043995172009</v>
       </c>
       <c r="G18">
-        <v>6.338805970247789E-05</v>
+        <v>9.18851265426353E-05</v>
       </c>
       <c r="H18">
-        <v>5.50518619146556E-06</v>
+        <v>7.98012641841138E-06</v>
       </c>
       <c r="I18">
-        <v>0.002309150979784013</v>
+        <v>0.003347264941999955</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,28 +928,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>0.003062138746093026</v>
+        <v>0.004438769817162672</v>
       </c>
       <c r="C19">
-        <v>0.00020125</v>
+        <v>0.000291725</v>
       </c>
       <c r="D19">
-        <v>0.000180330537341978</v>
+        <v>0.0002614008745644149</v>
       </c>
       <c r="E19">
-        <v>0.0001518807396460718</v>
+        <v>0.0002201610373826102</v>
       </c>
       <c r="F19">
-        <v>0.0003637068955153565</v>
+        <v>0.0005272168650644344</v>
       </c>
       <c r="G19">
-        <v>0.0001133301673468544</v>
+        <v>0.0001642794686671358</v>
       </c>
       <c r="H19">
-        <v>1.835062063821853E-05</v>
+        <v>2.660042139470459E-05</v>
       </c>
       <c r="I19">
-        <v>0.004090987706581505</v>
+        <v>0.005930153484235972</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -957,28 +957,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>0.00414775762210336</v>
+        <v>0.006012445179170696</v>
       </c>
       <c r="C20">
-        <v>0.0002156249999999999</v>
+        <v>0.0003125624999999999</v>
       </c>
       <c r="D20">
-        <v>0.0001589353888437771</v>
+        <v>0.0002303872114805013</v>
       </c>
       <c r="E20">
-        <v>0.0001319368041369917</v>
+        <v>0.0001912510021707523</v>
       </c>
       <c r="F20">
-        <v>0.0003536039261954856</v>
+        <v>0.0005125719521459781</v>
       </c>
       <c r="G20">
-        <v>9.796336499473852E-05</v>
+        <v>0.0001420042864749818</v>
       </c>
       <c r="H20">
-        <v>1.835062063821853E-05</v>
+        <v>2.660042139470459E-05</v>
       </c>
       <c r="I20">
-        <v>0.005124172726912572</v>
+        <v>0.007427822552837614</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -986,28 +986,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>0.003288865046979703</v>
+        <v>0.004767424376795799</v>
       </c>
       <c r="C21">
-        <v>0.00023</v>
+        <v>0.0003334000000000001</v>
       </c>
       <c r="D21">
-        <v>7.946769442188857E-05</v>
+        <v>0.0001151936057402506</v>
       </c>
       <c r="E21">
-        <v>5.522935987129885E-05</v>
+        <v>8.005855904822193E-05</v>
       </c>
       <c r="F21">
-        <v>0.000277831656296453</v>
+        <v>0.0004027351052575542</v>
       </c>
       <c r="G21">
-        <v>7.107146087853579E-05</v>
+        <v>0.0001030227176387123</v>
       </c>
       <c r="H21">
-        <v>7.340248255287412E-06</v>
+        <v>1.064016855788184E-05</v>
       </c>
       <c r="I21">
-        <v>0.004009805466703167</v>
+        <v>0.00581247453303842</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1015,28 +1015,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>0.003894357638759421</v>
+        <v>0.00564512537722779</v>
       </c>
       <c r="C22">
-        <v>0.00071875</v>
+        <v>0.001041875</v>
       </c>
       <c r="D22">
-        <v>0.0002475724326220373</v>
+        <v>0.0003588723871138576</v>
       </c>
       <c r="E22">
-        <v>5.676350875661272E-05</v>
+        <v>8.228240791067253E-05</v>
       </c>
       <c r="F22">
-        <v>0.0005253544046332932</v>
+        <v>0.0007615354717597387</v>
       </c>
       <c r="G22">
-        <v>0.0001286969696989702</v>
+        <v>0.0001865546508592898</v>
       </c>
       <c r="H22">
-        <v>7.340248255287412E-06</v>
+        <v>1.064016855788184E-05</v>
       </c>
       <c r="I22">
-        <v>0.005578835202725623</v>
+        <v>0.008086885463429233</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1044,28 +1044,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>0.00349958713839203</v>
+        <v>0.005072879791043057</v>
       </c>
       <c r="C23">
-        <v>0.0007474999999999998</v>
+        <v>0.00108355</v>
       </c>
       <c r="D23">
-        <v>0.0002017256858401787</v>
+        <v>0.0002924145376483287</v>
       </c>
       <c r="E23">
-        <v>3.528542436221872E-05</v>
+        <v>5.114852383636401E-05</v>
       </c>
       <c r="F23">
-        <v>0.0005682920242427449</v>
+        <v>0.000823776351663179</v>
       </c>
       <c r="G23">
-        <v>9.796336499473852E-05</v>
+        <v>0.0001420042864749818</v>
       </c>
       <c r="H23">
-        <v>9.175310319109265E-06</v>
+        <v>1.33002106973523E-05</v>
       </c>
       <c r="I23">
-        <v>0.00515952894815102</v>
+        <v>0.007479073701363263</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1073,28 +1073,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>0.003672966074364196</v>
+        <v>0.00532420386605662</v>
       </c>
       <c r="C24">
-        <v>0.0007474999999999998</v>
+        <v>0.00108355</v>
       </c>
       <c r="D24">
-        <v>0.000180330537341978</v>
+        <v>0.0002614008745644149</v>
       </c>
       <c r="E24">
-        <v>3.375127547690486E-05</v>
+        <v>4.892467497391339E-05</v>
       </c>
       <c r="F24">
-        <v>0.0005304058892932288</v>
+        <v>0.0007688579282189669</v>
       </c>
       <c r="G24">
-        <v>8.643826323065165E-05</v>
+        <v>0.0001252978998308663</v>
       </c>
       <c r="H24">
-        <v>1.835062063821853E-05</v>
+        <v>2.660042139470459E-05</v>
       </c>
       <c r="I24">
-        <v>0.005269742660345177</v>
+        <v>0.007638835665039486</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1102,28 +1102,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>0.003704974493312903</v>
+        <v>0.005370602156828355</v>
       </c>
       <c r="C25">
-        <v>0.000575</v>
+        <v>0.0008335</v>
       </c>
       <c r="D25">
-        <v>0.0001894998866983497</v>
+        <v>0.0002746924444575207</v>
       </c>
       <c r="E25">
-        <v>3.2217126591591E-05</v>
+        <v>4.670082611146276E-05</v>
       </c>
       <c r="F25">
-        <v>0.0004192732267746472</v>
+        <v>0.0006077638861159453</v>
       </c>
       <c r="G25">
-        <v>8.067571234860816E-05</v>
+        <v>0.0001169447065088086</v>
       </c>
       <c r="H25">
-        <v>1.284543444675297E-05</v>
+        <v>1.862029497629322E-05</v>
       </c>
       <c r="I25">
-        <v>0.005014485880172851</v>
+        <v>0.007268824314998386</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1131,28 +1131,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>0.003811669223141927</v>
+        <v>0.005525263126067478</v>
       </c>
       <c r="C26">
-        <v>0.0006181250000000002</v>
+        <v>0.0008960125000000002</v>
       </c>
       <c r="D26">
-        <v>0.0001681047382001489</v>
+        <v>0.0002436787813736072</v>
       </c>
       <c r="E26">
-        <v>1.840978662376628E-05</v>
+        <v>2.668618634940731E-05</v>
       </c>
       <c r="F26">
-        <v>0.000535457373953164</v>
+        <v>0.0007761803846781948</v>
       </c>
       <c r="G26">
-        <v>0.0001075676164648109</v>
+        <v>0.000155926275345078</v>
       </c>
       <c r="H26">
-        <v>1.468049651057482E-05</v>
+        <v>2.128033711576368E-05</v>
       </c>
       <c r="I26">
-        <v>0.005274014234894393</v>
+        <v>0.007645027590929529</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1160,28 +1160,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>0.004001052368588449</v>
+        <v>0.005799786346466908</v>
       </c>
       <c r="C27">
-        <v>0.0004887499999999998</v>
+        <v>0.000708475</v>
       </c>
       <c r="D27">
-        <v>0.0002353466334802084</v>
+        <v>0.0003411502939230501</v>
       </c>
       <c r="E27">
-        <v>3.681957324753257E-05</v>
+        <v>5.337237269881461E-05</v>
       </c>
       <c r="F27">
-        <v>0.0004495821347342604</v>
+        <v>0.0006516986248713148</v>
       </c>
       <c r="G27">
-        <v>4.225870646831857E-05</v>
+        <v>6.125675102842352E-05</v>
       </c>
       <c r="H27">
-        <v>1.284543444675297E-05</v>
+        <v>1.862029497629322E-05</v>
       </c>
       <c r="I27">
-        <v>0.005266654850965522</v>
+        <v>0.007634359683964804</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1189,28 +1189,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>0.00387301869279362</v>
+        <v>0.005614193183379969</v>
       </c>
       <c r="C28">
-        <v>0.0007474999999999998</v>
+        <v>0.00108355</v>
       </c>
       <c r="D28">
-        <v>0.0002322901836947512</v>
+        <v>0.0003367197706253479</v>
       </c>
       <c r="E28">
-        <v>3.375127547690486E-05</v>
+        <v>4.892467497391339E-05</v>
       </c>
       <c r="F28">
-        <v>0.0004243247114345827</v>
+        <v>0.0006150863425751739</v>
       </c>
       <c r="G28">
-        <v>8.643826323065165E-05</v>
+        <v>0.0001252978998308663</v>
       </c>
       <c r="H28">
-        <v>2.936099302114965E-05</v>
+        <v>4.256067423152735E-05</v>
       </c>
       <c r="I28">
-        <v>0.005426684119651659</v>
+        <v>0.007866332545616798</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1218,28 +1218,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>0.004259787088423835</v>
+        <v>0.006174839196871767</v>
       </c>
       <c r="C29">
-        <v>0.0006468749999999999</v>
+        <v>0.0009376874999999999</v>
       </c>
       <c r="D29">
-        <v>0.0002261772841238367</v>
+        <v>0.000327858724029944</v>
       </c>
       <c r="E29">
-        <v>4.449031767410186E-05</v>
+        <v>6.449161701106765E-05</v>
       </c>
       <c r="F29">
-        <v>0.0004217989691046152</v>
+        <v>0.0006114251143455596</v>
       </c>
       <c r="G29">
-        <v>5.186295793839097E-05</v>
+        <v>7.517873989851979E-05</v>
       </c>
       <c r="H29">
-        <v>4.587655159554631E-05</v>
+        <v>6.650105348676152E-05</v>
       </c>
       <c r="I29">
-        <v>0.005696868168860326</v>
+        <v>0.00825798194564362</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1247,28 +1247,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>0.00533740385969699</v>
+        <v>0.007736914986186851</v>
       </c>
       <c r="C30">
-        <v>0.00031625</v>
+        <v>0.000458425</v>
       </c>
       <c r="D30">
-        <v>0.0001436531399164908</v>
+        <v>0.0002082345949919916</v>
       </c>
       <c r="E30">
-        <v>7.363914649506513E-05</v>
+        <v>0.0001067447453976292</v>
       </c>
       <c r="F30">
-        <v>0.0003662326378453244</v>
+        <v>0.0005308780932940483</v>
       </c>
       <c r="G30">
-        <v>4.033785617430408E-05</v>
+        <v>5.847235325440428E-05</v>
       </c>
       <c r="H30">
-        <v>2.385580682968409E-05</v>
+        <v>3.458054781311598E-05</v>
       </c>
       <c r="I30">
-        <v>0.006301372446957859</v>
+        <v>0.009134250320938038</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1276,28 +1276,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>0.005553460687600766</v>
+        <v>0.008050103448896066</v>
       </c>
       <c r="C31">
-        <v>0.000416875</v>
+        <v>0.0006042874999999999</v>
       </c>
       <c r="D31">
-        <v>0.000180330537341978</v>
+        <v>0.0002614008745644149</v>
       </c>
       <c r="E31">
-        <v>0.00010739042197197</v>
+        <v>0.0001556694203715426</v>
       </c>
       <c r="F31">
-        <v>0.0002803573986264206</v>
+        <v>0.0004063963334871682</v>
       </c>
       <c r="G31">
-        <v>3.649615558627511E-05</v>
+        <v>5.290355770636577E-05</v>
       </c>
       <c r="H31">
-        <v>7.340248255287412E-06</v>
+        <v>1.064016855788184E-05</v>
       </c>
       <c r="I31">
-        <v>0.006582250449382696</v>
+        <v>0.009541401303583438</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1305,28 +1305,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>0.004393155500710116</v>
+        <v>0.006368165408420666</v>
       </c>
       <c r="C32">
-        <v>0.000301875</v>
+        <v>0.0004375874999999999</v>
       </c>
       <c r="D32">
-        <v>0.0001528224892728626</v>
+        <v>0.0002215261648850974</v>
       </c>
       <c r="E32">
-        <v>7.210499760975128E-05</v>
+        <v>0.0001045208965351786</v>
       </c>
       <c r="F32">
-        <v>0.0001970079017374849</v>
+        <v>0.0002855758019099022</v>
       </c>
       <c r="G32">
-        <v>2.88127544102172E-05</v>
+        <v>4.176596661028876E-05</v>
       </c>
       <c r="H32">
-        <v>1.651555857439667E-05</v>
+        <v>2.394037925523414E-05</v>
       </c>
       <c r="I32">
-        <v>0.005162294202314829</v>
+        <v>0.007483082117616366</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1334,28 +1334,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>0.003678300810855646</v>
+        <v>0.005331936914518577</v>
       </c>
       <c r="C33">
-        <v>0.0004312499999999998</v>
+        <v>0.0006251249999999998</v>
       </c>
       <c r="D33">
-        <v>0.0001192015416328329</v>
+        <v>0.000172790408610376</v>
       </c>
       <c r="E33">
-        <v>9.818552866008687E-05</v>
+        <v>0.000142326327196839</v>
       </c>
       <c r="F33">
-        <v>0.0001262871164983877</v>
+        <v>0.0001830614114807065</v>
       </c>
       <c r="G33">
-        <v>3.073360470423169E-05</v>
+        <v>4.4550364384308E-05</v>
       </c>
       <c r="H33">
-        <v>1.835062063821853E-06</v>
+        <v>2.660042139470459E-06</v>
       </c>
       <c r="I33">
-        <v>0.004485793664415006</v>
+        <v>0.006502450468330277</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1363,28 +1363,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>0.003022128222407141</v>
+        <v>0.004380771953698005</v>
       </c>
       <c r="C34">
-        <v>0.0002875</v>
+        <v>0.00041675</v>
       </c>
       <c r="D34">
-        <v>7.946769442188857E-05</v>
+        <v>0.0001151936057402506</v>
       </c>
       <c r="E34">
-        <v>4.755861544472956E-05</v>
+        <v>6.893931473596884E-05</v>
       </c>
       <c r="F34">
-        <v>8.082375455896815E-05</v>
+        <v>0.0001171593033476521</v>
       </c>
       <c r="G34">
-        <v>1.536680235211584E-05</v>
+        <v>2.2275182192154E-05</v>
       </c>
       <c r="H34">
-        <v>7.340248255287412E-06</v>
+        <v>1.064016855788184E-05</v>
       </c>
       <c r="I34">
-        <v>0.00354018533744013</v>
+        <v>0.005131729528271913</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1392,28 +1392,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>0.002136561964826231</v>
+        <v>0.003097085909013329</v>
       </c>
       <c r="C35">
-        <v>0.000273125</v>
+        <v>0.0003959125</v>
       </c>
       <c r="D35">
-        <v>7.641124463643132E-05</v>
+        <v>0.0001107630824425487</v>
       </c>
       <c r="E35">
-        <v>2.608053105033557E-05</v>
+        <v>3.780543066166033E-05</v>
       </c>
       <c r="F35">
-        <v>6.061781591922613E-05</v>
+        <v>8.78694775107391E-05</v>
       </c>
       <c r="G35">
-        <v>2.497105382218825E-05</v>
+        <v>3.619717106225028E-05</v>
       </c>
       <c r="H35">
-        <v>1.835062063821853E-06</v>
+        <v>2.660042139470459E-06</v>
       </c>
       <c r="I35">
-        <v>0.002599602672318234</v>
+        <v>0.003768293612829999</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1421,28 +1421,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.001344353595845718</v>
+        <v>0.001948728212412881</v>
       </c>
       <c r="C36">
-        <v>0.0005031249999999999</v>
+        <v>0.0007293125</v>
       </c>
       <c r="D36">
-        <v>3.056449785457253E-05</v>
+        <v>4.43052329770195E-05</v>
       </c>
       <c r="E36">
-        <v>1.380733996782471E-05</v>
+        <v>2.001463976205548E-05</v>
       </c>
       <c r="F36">
-        <v>5.051484659935511E-05</v>
+        <v>7.32245645922826E-05</v>
       </c>
       <c r="G36">
-        <v>1.728765264613033E-05</v>
+        <v>2.505957996617327E-05</v>
       </c>
       <c r="H36">
-        <v>1.835062063821853E-06</v>
+        <v>2.660042139470459E-06</v>
       </c>
       <c r="I36">
-        <v>0.001961487994977423</v>
+        <v>0.002843304771849882</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1450,28 +1450,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.001021602038112917</v>
+        <v>0.00148087878046455</v>
       </c>
       <c r="C37">
-        <v>0.0006037499999999999</v>
+        <v>0.0008751749999999997</v>
       </c>
       <c r="D37">
-        <v>3.056449785457253E-05</v>
+        <v>4.43052329770195E-05</v>
       </c>
       <c r="E37">
-        <v>6.136595541255429E-06</v>
+        <v>8.895395449802434E-06</v>
       </c>
       <c r="F37">
-        <v>4.293761960945182E-05</v>
+        <v>6.224087990344022E-05</v>
       </c>
       <c r="G37">
-        <v>1.920850294014481E-05</v>
+        <v>2.784397774019251E-05</v>
       </c>
       <c r="H37">
-        <v>7.340248255287412E-06</v>
+        <v>1.064016855788184E-05</v>
       </c>
       <c r="I37">
-        <v>0.001731539502313629</v>
+        <v>0.002509979435092886</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1479,28 +1479,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.0005734841728310104</v>
+        <v>0.0008313027096602571</v>
       </c>
       <c r="C38">
-        <v>0.000416875</v>
+        <v>0.0006042874999999999</v>
       </c>
       <c r="D38">
-        <v>2.445159828365802E-05</v>
+        <v>3.544418638161559E-05</v>
       </c>
       <c r="E38">
-        <v>3.068297770627715E-06</v>
+        <v>4.447697724901217E-06</v>
       </c>
       <c r="F38">
-        <v>5.051484659935511E-05</v>
+        <v>7.32245645922826E-05</v>
       </c>
       <c r="G38">
-        <v>1.920850294014481E-05</v>
+        <v>2.784397774019251E-05</v>
       </c>
       <c r="H38">
-        <v>3.670124127643706E-06</v>
+        <v>5.320084278940919E-06</v>
       </c>
       <c r="I38">
-        <v>0.00109127254255244</v>
+        <v>0.00158187072037819</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1508,28 +1508,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.0003841010273844911</v>
+        <v>0.000556779489260823</v>
       </c>
       <c r="C39">
-        <v>0.000301875</v>
+        <v>0.0004375874999999999</v>
       </c>
       <c r="D39">
-        <v>3.667739742548703E-05</v>
+        <v>5.316627957242336E-05</v>
       </c>
       <c r="E39">
-        <v>1.534148885313857E-06</v>
+        <v>2.223848862450609E-06</v>
       </c>
       <c r="F39">
-        <v>4.798910426938736E-05</v>
+        <v>6.956333636266844E-05</v>
       </c>
       <c r="G39">
-        <v>1.920850294014481E-05</v>
+        <v>2.784397774019251E-05</v>
       </c>
       <c r="H39">
-        <v>1.835062063821853E-06</v>
+        <v>2.660042139470459E-06</v>
       </c>
       <c r="I39">
-        <v>0.0007932202429686458</v>
+        <v>0.001149824473938028</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1537,28 +1537,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.0003867683956302166</v>
+        <v>0.0005606460134918009</v>
       </c>
       <c r="C40">
-        <v>0.000158125</v>
+        <v>0.0002292125</v>
       </c>
       <c r="D40">
-        <v>3.362094764002978E-05</v>
+        <v>4.873575627472142E-05</v>
       </c>
       <c r="E40">
-        <v>4.602446655941571E-06</v>
+        <v>6.671546587351826E-06</v>
       </c>
       <c r="F40">
-        <v>5.304058892932284E-05</v>
+        <v>7.688579282189674E-05</v>
       </c>
       <c r="G40">
-        <v>2.497105382218825E-05</v>
+        <v>3.619717106225028E-05</v>
       </c>
       <c r="H40">
-        <v>3.670124127643706E-06</v>
+        <v>5.320084278940919E-06</v>
       </c>
       <c r="I40">
-        <v>0.0006647985568053427</v>
+        <v>0.0009636688645169621</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1566,28 +1566,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.000722856794591646</v>
+        <v>0.001047828066595021</v>
       </c>
       <c r="C41">
-        <v>0.000158125</v>
+        <v>0.0002292125</v>
       </c>
       <c r="D41">
-        <v>4.279029699640153E-05</v>
+        <v>6.202732616782725E-05</v>
       </c>
       <c r="E41">
-        <v>7.670744426569283E-06</v>
+        <v>1.111924431225304E-05</v>
       </c>
       <c r="F41">
-        <v>0.0001288128588283556</v>
+        <v>0.0001867226397103206</v>
       </c>
       <c r="G41">
-        <v>3.841700588028961E-05</v>
+        <v>5.568795548038503E-05</v>
       </c>
       <c r="H41">
-        <v>1.835062063821853E-06</v>
+        <v>2.660042139470459E-06</v>
       </c>
       <c r="I41">
-        <v>0.001100507762787084</v>
+        <v>0.001595257774405277</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1595,28 +1595,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>0.001877827244990844</v>
+        <v>0.002722033058608471</v>
       </c>
       <c r="C42">
-        <v>0.000158125</v>
+        <v>0.0002292125</v>
       </c>
       <c r="D42">
-        <v>7.946769442188857E-05</v>
+        <v>0.0001151936057402506</v>
       </c>
       <c r="E42">
-        <v>6.443425318318199E-05</v>
+        <v>9.340165222292553E-05</v>
       </c>
       <c r="F42">
-        <v>0.0002550999753267434</v>
+        <v>0.000369784051191027</v>
       </c>
       <c r="G42">
-        <v>7.107146087853579E-05</v>
+        <v>0.0001030227176387123</v>
       </c>
       <c r="H42">
-        <v>1.468049651057482E-05</v>
+        <v>2.128033711576368E-05</v>
       </c>
       <c r="I42">
-        <v>0.002520706125311769</v>
+        <v>0.003653927922517149</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1624,28 +1624,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>0.002795401921520463</v>
+        <v>0.004052117394064878</v>
       </c>
       <c r="C43">
-        <v>7.1875E-05</v>
+        <v>0.0001041875</v>
       </c>
       <c r="D43">
-        <v>0.0001130886420619184</v>
+        <v>0.000163929362014972</v>
       </c>
       <c r="E43">
-        <v>0.0001258002085957363</v>
+        <v>0.0001823556067209499</v>
       </c>
       <c r="F43">
-        <v>0.0003106663065860338</v>
+        <v>0.0004503310722425378</v>
       </c>
       <c r="G43">
-        <v>0.0001421429217570716</v>
+        <v>0.0002060454352774246</v>
       </c>
       <c r="H43">
-        <v>1.651555857439667E-05</v>
+        <v>2.394037925523414E-05</v>
       </c>
       <c r="I43">
-        <v>0.003575490559095619</v>
+        <v>0.005182906749575996</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1653,28 +1653,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>0.004475843916327611</v>
+        <v>0.006488027659580981</v>
       </c>
       <c r="C44">
-        <v>0.0002443749999999999</v>
+        <v>0.0003542375</v>
       </c>
       <c r="D44">
-        <v>0.0001436531399164908</v>
+        <v>0.0002082345949919916</v>
       </c>
       <c r="E44">
-        <v>0.0001411416974488749</v>
+        <v>0.000204594095345456</v>
       </c>
       <c r="F44">
-        <v>0.0003687583801752923</v>
+        <v>0.0005345393215236626</v>
       </c>
       <c r="G44">
-        <v>0.0001037259158767819</v>
+        <v>0.0001503574797970396</v>
       </c>
       <c r="H44">
-        <v>3.303111714879335E-05</v>
+        <v>4.788075851046828E-05</v>
       </c>
       <c r="I44">
-        <v>0.005510529166893845</v>
+        <v>0.007987871409749599</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1682,28 +1682,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>0.00454252812247075</v>
+        <v>0.006584690765355428</v>
       </c>
       <c r="C45">
-        <v>0.0005031249999999999</v>
+        <v>0.0007293125</v>
       </c>
       <c r="D45">
-        <v>0.0001742176377710634</v>
+        <v>0.0002525398279690111</v>
       </c>
       <c r="E45">
-        <v>7.363914649506513E-05</v>
+        <v>0.0001067447453976292</v>
       </c>
       <c r="F45">
-        <v>0.0004217989691046152</v>
+        <v>0.0006114251143455596</v>
       </c>
       <c r="G45">
-        <v>0.0001171718679348833</v>
+        <v>0.0001698482642151743</v>
       </c>
       <c r="H45">
-        <v>1.468049651057482E-05</v>
+        <v>2.128033711576368E-05</v>
       </c>
       <c r="I45">
-        <v>0.005847161240286952</v>
+        <v>0.008475841554398567</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1711,28 +1711,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>0.003899692375250873</v>
+        <v>0.005652858425689748</v>
       </c>
       <c r="C46">
-        <v>0.0007762499999999999</v>
+        <v>0.001125225</v>
       </c>
       <c r="D46">
-        <v>0.0002689675811202382</v>
+        <v>0.0003898860501977714</v>
       </c>
       <c r="E46">
-        <v>6.750255095380972E-05</v>
+        <v>9.784934994782677E-05</v>
       </c>
       <c r="F46">
-        <v>0.0004622108463840993</v>
+        <v>0.0006700047660193857</v>
       </c>
       <c r="G46">
-        <v>0.0001248552691109412</v>
+        <v>0.0001809858553112513</v>
       </c>
       <c r="H46">
-        <v>1.468049651057482E-05</v>
+        <v>2.128033711576368E-05</v>
       </c>
       <c r="I46">
-        <v>0.005614159119330536</v>
+        <v>0.008138089784281745</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1740,28 +1740,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>0.002902096651349486</v>
+        <v>0.004206778363303998</v>
       </c>
       <c r="C47">
-        <v>0.0005893749999999999</v>
+        <v>0.0008543375000000001</v>
       </c>
       <c r="D47">
-        <v>0.0001558789390583199</v>
+        <v>0.0002259566881827994</v>
       </c>
       <c r="E47">
-        <v>2.914882882096328E-05</v>
+        <v>4.225312838656156E-05</v>
       </c>
       <c r="F47">
-        <v>0.0004091702574547763</v>
+        <v>0.0005931189731974888</v>
       </c>
       <c r="G47">
-        <v>8.451741293663715E-05</v>
+        <v>0.000122513502056847</v>
       </c>
       <c r="H47">
-        <v>9.175310319109265E-06</v>
+        <v>1.33002106973523E-05</v>
       </c>
       <c r="I47">
-        <v>0.004179362399939292</v>
+        <v>0.006058258365825047</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1769,28 +1769,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>0.003046134536618671</v>
+        <v>0.004415570671776805</v>
       </c>
       <c r="C48">
-        <v>0.0005893749999999999</v>
+        <v>0.0008543375000000001</v>
       </c>
       <c r="D48">
-        <v>0.0001375402403455765</v>
+        <v>0.0001993735483965876</v>
       </c>
       <c r="E48">
-        <v>2.914882882096328E-05</v>
+        <v>4.225312838656156E-05</v>
       </c>
       <c r="F48">
-        <v>0.0003839128341550989</v>
+        <v>0.0005565066909013475</v>
       </c>
       <c r="G48">
-        <v>7.491316146656473E-05</v>
+        <v>0.0001085915131867508</v>
       </c>
       <c r="H48">
-        <v>1.835062063821853E-05</v>
+        <v>2.660042139470459E-05</v>
       </c>
       <c r="I48">
-        <v>0.004279375222045092</v>
+        <v>0.006203233474042757</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1798,28 +1798,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>0.003072808219075929</v>
+        <v>0.004454235914086584</v>
       </c>
       <c r="C49">
-        <v>0.00046</v>
+        <v>0.0006668000000000002</v>
       </c>
       <c r="D49">
-        <v>0.0001467095897019481</v>
+        <v>0.0002126651182896935</v>
       </c>
       <c r="E49">
-        <v>2.761467993564943E-05</v>
+        <v>4.002927952411096E-05</v>
       </c>
       <c r="F49">
-        <v>0.0003030890795961306</v>
+        <v>0.0004393473875536955</v>
       </c>
       <c r="G49">
-        <v>6.915061058452131E-05</v>
+        <v>0.0001002383198646931</v>
       </c>
       <c r="H49">
-        <v>1.284543444675297E-05</v>
+        <v>1.862029497629322E-05</v>
       </c>
       <c r="I49">
-        <v>0.004092217613340931</v>
+        <v>0.00593193631429507</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_SOx.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>2.104541066422243</v>
+        <v>1.430380940765687</v>
       </c>
       <c r="C2">
-        <v>0.05761152000000002</v>
+        <v>0.03915648</v>
       </c>
       <c r="D2">
-        <v>0.2174426058793051</v>
+        <v>0.147787925891573</v>
       </c>
       <c r="E2">
-        <v>0.1061538987145679</v>
+        <v>0.0721489905480537</v>
       </c>
       <c r="F2">
-        <v>0.2132627364847412</v>
+        <v>0.1449470188585555</v>
       </c>
       <c r="G2">
-        <v>0.2174703103494403</v>
+        <v>0.1478067556244247</v>
       </c>
       <c r="H2">
-        <v>0.09646624427342379</v>
+        <v>0.06556463992908768</v>
       </c>
       <c r="I2">
-        <v>3.012948382123721</v>
+        <v>2.047792751617382</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>2.173611737724781</v>
+        <v>1.477325794146478</v>
       </c>
       <c r="C3">
-        <v>0.06361272000000001</v>
+        <v>0.04323528000000001</v>
       </c>
       <c r="D3">
-        <v>0.220840146596169</v>
+        <v>0.150097112233629</v>
       </c>
       <c r="E3">
-        <v>0.1061538987145679</v>
+        <v>0.0721489905480537</v>
       </c>
       <c r="F3">
-        <v>0.2058356760101483</v>
+        <v>0.1398991127291532</v>
       </c>
       <c r="G3">
-        <v>0.1726970111598497</v>
+        <v>0.1173759529958666</v>
       </c>
       <c r="H3">
-        <v>0.08904576394469885</v>
+        <v>0.06052120608838862</v>
       </c>
       <c r="I3">
-        <v>3.031796954150215</v>
+        <v>2.060603448741569</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>2.201803848460511</v>
+        <v>1.496486958791698</v>
       </c>
       <c r="C4">
-        <v>0.05881176000000002</v>
+        <v>0.03997223999999999</v>
       </c>
       <c r="D4">
-        <v>0.2242376873130333</v>
+        <v>0.1524062985756848</v>
       </c>
       <c r="E4">
-        <v>0.1002564598970919</v>
+        <v>0.06814071329538403</v>
       </c>
       <c r="F4">
-        <v>0.1920425637001899</v>
+        <v>0.1305244299174057</v>
       </c>
       <c r="G4">
-        <v>0.1726970111598497</v>
+        <v>0.1173759529958666</v>
       </c>
       <c r="H4">
-        <v>0.08162528361597397</v>
+        <v>0.05547777224768956</v>
       </c>
       <c r="I4">
-        <v>3.03147461414665</v>
+        <v>2.060384365823728</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>2.380823751632396</v>
+        <v>1.618160354288847</v>
       </c>
       <c r="C5">
-        <v>0.04920983999999999</v>
+        <v>0.03344616000000001</v>
       </c>
       <c r="D5">
-        <v>0.2344303094636254</v>
+        <v>0.1593338576018523</v>
       </c>
       <c r="E5">
-        <v>0.1710257257068039</v>
+        <v>0.1162400403274198</v>
       </c>
       <c r="F5">
-        <v>0.1888595377825072</v>
+        <v>0.1283610415762332</v>
       </c>
       <c r="G5">
-        <v>0.1663008255613367</v>
+        <v>0.1130286954775012</v>
       </c>
       <c r="H5">
-        <v>0.0742048032872491</v>
+        <v>0.05043433840699049</v>
       </c>
       <c r="I5">
-        <v>3.264854793433919</v>
+        <v>2.219004487678844</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>2.717719474924372</v>
+        <v>1.847136271799227</v>
       </c>
       <c r="C6">
-        <v>0.04680936000000001</v>
+        <v>0.03181463999999999</v>
       </c>
       <c r="D6">
-        <v>0.2140450651624407</v>
+        <v>0.1454787395495172</v>
       </c>
       <c r="E6">
-        <v>0.377436084318464</v>
+        <v>0.2565297441708576</v>
       </c>
       <c r="F6">
-        <v>0.1591512958841353</v>
+        <v>0.1081694170586235</v>
       </c>
       <c r="G6">
-        <v>0.08315041278066836</v>
+        <v>0.05651434773875059</v>
       </c>
       <c r="H6">
-        <v>0.06678432295852414</v>
+        <v>0.04539090456629145</v>
       </c>
       <c r="I6">
-        <v>3.665096016028605</v>
+        <v>2.491034064883267</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>2.900968194706615</v>
+        <v>1.971683841993159</v>
       </c>
       <c r="C7">
-        <v>0.01800360000000001</v>
+        <v>0.0122364</v>
       </c>
       <c r="D7">
-        <v>0.146094250825158</v>
+        <v>0.09929501270840067</v>
       </c>
       <c r="E7">
-        <v>0.3951284007708919</v>
+        <v>0.2685545759288664</v>
       </c>
       <c r="F7">
-        <v>0.1029178380050741</v>
+        <v>0.06994955636457659</v>
       </c>
       <c r="G7">
-        <v>0.08315041278066836</v>
+        <v>0.05651434773875059</v>
       </c>
       <c r="H7">
-        <v>0.0742048032872491</v>
+        <v>0.05043433840699049</v>
       </c>
       <c r="I7">
-        <v>3.720467500375657</v>
+        <v>2.528668073140743</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>2.207442270607657</v>
+        <v>1.500319191720744</v>
       </c>
       <c r="C8">
-        <v>0.02280456</v>
+        <v>0.01549944</v>
       </c>
       <c r="D8">
-        <v>0.2004549022949842</v>
+        <v>0.1362419941812941</v>
       </c>
       <c r="E8">
-        <v>0.2358975526990398</v>
+        <v>0.160331090106786</v>
       </c>
       <c r="F8">
-        <v>0.07639262202438499</v>
+        <v>0.05192132018813925</v>
       </c>
       <c r="G8">
-        <v>0.07675422718215541</v>
+        <v>0.05216709022038515</v>
       </c>
       <c r="H8">
-        <v>0.01484096065744981</v>
+        <v>0.0100868676813981</v>
       </c>
       <c r="I8">
-        <v>2.834587095465671</v>
+        <v>1.926566994098746</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>1.757778104372766</v>
+        <v>1.194698615629478</v>
       </c>
       <c r="C9">
-        <v>0.02400479999999999</v>
+        <v>0.01631519999999999</v>
       </c>
       <c r="D9">
-        <v>0.1257090065239731</v>
+        <v>0.08543989465606572</v>
       </c>
       <c r="E9">
-        <v>0.448205350128176</v>
+        <v>0.3046290712028933</v>
       </c>
       <c r="F9">
-        <v>0.03501328509450976</v>
+        <v>0.02379727175289717</v>
       </c>
       <c r="G9">
-        <v>0.08954659837918129</v>
+        <v>0.06086160525711597</v>
       </c>
       <c r="H9">
-        <v>0.02226144098617471</v>
+        <v>0.01513030152209716</v>
       </c>
       <c r="I9">
-        <v>2.50251858548478</v>
+        <v>1.700871960020548</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>1.456122519500453</v>
+        <v>0.9896741539256233</v>
       </c>
       <c r="C10">
-        <v>0.0120024</v>
+        <v>0.008157599999999996</v>
       </c>
       <c r="D10">
-        <v>0.1053237622227884</v>
+        <v>0.07158477660373075</v>
       </c>
       <c r="E10">
-        <v>0.224102675064088</v>
+        <v>0.1523145356014466</v>
       </c>
       <c r="F10">
-        <v>0.03289126781605463</v>
+        <v>0.02235501285878217</v>
       </c>
       <c r="G10">
-        <v>0.1087351551747202</v>
+        <v>0.07390337781221233</v>
       </c>
       <c r="H10">
-        <v>0.007420480328724904</v>
+        <v>0.005043433840699049</v>
       </c>
       <c r="I10">
-        <v>1.946598260106829</v>
+        <v>1.323032890642494</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>1.034650464001291</v>
+        <v>0.7032147424795812</v>
       </c>
       <c r="C11">
-        <v>0.02400479999999999</v>
+        <v>0.01631519999999999</v>
       </c>
       <c r="D11">
-        <v>0.05436065146982626</v>
+        <v>0.03694698147289326</v>
       </c>
       <c r="E11">
-        <v>0.1061538987145679</v>
+        <v>0.0721489905480537</v>
       </c>
       <c r="F11">
-        <v>0.03607429373373736</v>
+        <v>0.02451840119995466</v>
       </c>
       <c r="G11">
-        <v>0.07675422718215541</v>
+        <v>0.05216709022038515</v>
       </c>
       <c r="H11">
-        <v>0.02968192131489962</v>
+        <v>0.0201737353627962</v>
       </c>
       <c r="I11">
-        <v>1.361680256416477</v>
+        <v>0.925485141283664</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.6357320970907115</v>
+        <v>0.4320842627497158</v>
       </c>
       <c r="C12">
-        <v>0.02400479999999999</v>
+        <v>0.01631519999999999</v>
       </c>
       <c r="D12">
-        <v>0.03057786645177726</v>
+        <v>0.02078267707850249</v>
       </c>
       <c r="E12">
-        <v>0.05307694935728395</v>
+        <v>0.03607449527402685</v>
       </c>
       <c r="F12">
-        <v>0.02015916414532382</v>
+        <v>0.01370145949409231</v>
       </c>
       <c r="G12">
-        <v>0.0575656703866165</v>
+        <v>0.03912531766528881</v>
       </c>
       <c r="H12">
-        <v>0.01484096065744981</v>
+        <v>0.0100868676813981</v>
       </c>
       <c r="I12">
-        <v>0.8359575080891629</v>
+        <v>0.5681702799430244</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.4510737717716796</v>
+        <v>0.3065786343235231</v>
       </c>
       <c r="C13">
-        <v>0.03600720000000001</v>
+        <v>0.02447279999999999</v>
       </c>
       <c r="D13">
-        <v>0.03397540716864141</v>
+        <v>0.02309186342055831</v>
       </c>
       <c r="E13">
-        <v>0.03538463290485598</v>
+        <v>0.02404966351601789</v>
       </c>
       <c r="F13">
-        <v>0.02122017278455138</v>
+        <v>0.0144225889411498</v>
       </c>
       <c r="G13">
-        <v>0.07035804158364249</v>
+        <v>0.04781983270201972</v>
       </c>
       <c r="I13">
-        <v>0.6480192262133708</v>
+        <v>0.4404353829032688</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.2974267682619512</v>
+        <v>0.2021502870070732</v>
       </c>
       <c r="C14">
-        <v>0.03840768000000001</v>
+        <v>0.02610431999999999</v>
       </c>
       <c r="D14">
-        <v>0.02038524430118486</v>
+        <v>0.013855118052335</v>
       </c>
       <c r="E14">
-        <v>0.01769231645242799</v>
+        <v>0.01202483175800894</v>
       </c>
       <c r="F14">
-        <v>0.02334219006300651</v>
+        <v>0.01586484783526477</v>
       </c>
       <c r="G14">
-        <v>0.1023389695762072</v>
+        <v>0.06955612029384678</v>
       </c>
       <c r="H14">
-        <v>0.007420480328724904</v>
+        <v>0.005043433840699049</v>
       </c>
       <c r="I14">
-        <v>0.5070136489835028</v>
+        <v>0.3445989587872277</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.2269464914226263</v>
+        <v>0.1542473753940227</v>
       </c>
       <c r="C15">
-        <v>0.02880576000000001</v>
+        <v>0.01957824</v>
       </c>
       <c r="D15">
-        <v>0.03737294788550554</v>
+        <v>0.02540104976261412</v>
       </c>
       <c r="E15">
-        <v>0.023589755269904</v>
+        <v>0.0160331090106786</v>
       </c>
       <c r="F15">
-        <v>0.01803714686686868</v>
+        <v>0.01225920059997733</v>
       </c>
       <c r="G15">
-        <v>0.08954659837918129</v>
+        <v>0.06086160525711597</v>
       </c>
       <c r="H15">
-        <v>0.01484096065744981</v>
+        <v>0.0100868676813981</v>
       </c>
       <c r="I15">
-        <v>0.4391396604815356</v>
+        <v>0.2984674477058068</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.2072120139076154</v>
+        <v>0.1408345601423686</v>
       </c>
       <c r="C16">
-        <v>0.01080216</v>
+        <v>0.007341840000000001</v>
       </c>
       <c r="D16">
-        <v>0.04416802931923383</v>
+        <v>0.03001942244672582</v>
       </c>
       <c r="E16">
-        <v>0.01769231645242799</v>
+        <v>0.01202483175800894</v>
       </c>
       <c r="F16">
-        <v>0.0169761382276411</v>
+        <v>0.01153807115291984</v>
       </c>
       <c r="G16">
-        <v>0.07675422718215541</v>
+        <v>0.05216709022038515</v>
       </c>
       <c r="H16">
-        <v>0.007420480328724904</v>
+        <v>0.005043433840699049</v>
       </c>
       <c r="I16">
-        <v>0.3810253654177986</v>
+        <v>0.2589692495611074</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,28 +870,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.4172432388888039</v>
+        <v>0.2835852367492591</v>
       </c>
       <c r="C17">
-        <v>0.01560312</v>
+        <v>0.01060488</v>
       </c>
       <c r="D17">
-        <v>0.06795081433728281</v>
+        <v>0.04618372684111663</v>
       </c>
       <c r="E17">
-        <v>0.01769231645242799</v>
+        <v>0.01202483175800894</v>
       </c>
       <c r="F17">
-        <v>0.03925731965142001</v>
+        <v>0.02668178954112714</v>
       </c>
       <c r="G17">
-        <v>0.115131340773233</v>
+        <v>0.07825063533057762</v>
       </c>
       <c r="H17">
-        <v>0.02226144098617471</v>
+        <v>0.01513030152209716</v>
       </c>
       <c r="I17">
-        <v>0.6951395910893422</v>
+        <v>0.4724614017421866</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>0.9190628099847983</v>
+        <v>0.6246539674341781</v>
       </c>
       <c r="C18">
-        <v>0.009601920000000003</v>
+        <v>0.006526079999999998</v>
       </c>
       <c r="D18">
-        <v>0.1087213029396525</v>
+        <v>0.07389396294578651</v>
       </c>
       <c r="E18">
-        <v>0.2830770632388478</v>
+        <v>0.1923973081281431</v>
       </c>
       <c r="F18">
-        <v>0.09018573433434338</v>
+        <v>0.06129600299988661</v>
       </c>
       <c r="G18">
-        <v>0.2110741247509275</v>
+        <v>0.1434594981060592</v>
       </c>
       <c r="H18">
-        <v>0.02226144098617471</v>
+        <v>0.01513030152209716</v>
       </c>
       <c r="I18">
-        <v>1.643984396234744</v>
+        <v>1.117357121136151</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,28 +928,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>1.618227156230901</v>
+        <v>1.09985085063564</v>
       </c>
       <c r="C19">
-        <v>0.01680336</v>
+        <v>0.01142064</v>
       </c>
       <c r="D19">
-        <v>0.2004549022949842</v>
+        <v>0.1362419941812941</v>
       </c>
       <c r="E19">
-        <v>0.5838464429301239</v>
+        <v>0.396819448014295</v>
       </c>
       <c r="F19">
-        <v>0.15278524404877</v>
+        <v>0.1038426403762785</v>
       </c>
       <c r="G19">
-        <v>0.3773749503122643</v>
+        <v>0.2564881935835601</v>
       </c>
       <c r="H19">
-        <v>0.0742048032872491</v>
+        <v>0.05043433840699049</v>
       </c>
       <c r="I19">
-        <v>3.023696859104292</v>
+        <v>2.055098105198058</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -957,28 +957,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>2.191936609703005</v>
+        <v>1.48978055116587</v>
       </c>
       <c r="C20">
-        <v>0.01800360000000001</v>
+        <v>0.0122364</v>
       </c>
       <c r="D20">
-        <v>0.1766721172769353</v>
+        <v>0.1200776897869033</v>
       </c>
       <c r="E20">
-        <v>0.5071797383029358</v>
+        <v>0.3447118437295899</v>
       </c>
       <c r="F20">
-        <v>0.1485412094918596</v>
+        <v>0.1009581225880486</v>
       </c>
       <c r="G20">
-        <v>0.3262054655241604</v>
+        <v>0.2217101334366368</v>
       </c>
       <c r="H20">
-        <v>0.0742048032872491</v>
+        <v>0.05043433840699049</v>
       </c>
       <c r="I20">
-        <v>3.442743543586146</v>
+        <v>2.339909079114039</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -986,28 +986,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>1.738043626857753</v>
+        <v>1.181285800377826</v>
       </c>
       <c r="C21">
-        <v>0.01920384000000001</v>
+        <v>0.01305216</v>
       </c>
       <c r="D21">
-        <v>0.08833605863846766</v>
+        <v>0.06003884489345163</v>
       </c>
       <c r="E21">
-        <v>0.2123077974291358</v>
+        <v>0.1442979810961074</v>
       </c>
       <c r="F21">
-        <v>0.1167109503150326</v>
+        <v>0.0793242391763239</v>
       </c>
       <c r="G21">
-        <v>0.236658867144979</v>
+        <v>0.160848528179521</v>
       </c>
       <c r="H21">
-        <v>0.02968192131489962</v>
+        <v>0.0201737353627962</v>
       </c>
       <c r="I21">
-        <v>2.440943061700268</v>
+        <v>1.659021289086026</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1015,28 +1015,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>2.058024083708289</v>
+        <v>1.398765019101076</v>
       </c>
       <c r="C22">
-        <v>0.06001199999999998</v>
+        <v>0.04078799999999998</v>
       </c>
       <c r="D22">
-        <v>0.2752007980659953</v>
+        <v>0.1870440937065221</v>
       </c>
       <c r="E22">
-        <v>0.218205236246612</v>
+        <v>0.1483062583487771</v>
       </c>
       <c r="F22">
-        <v>0.2206897969593343</v>
+        <v>0.1499949249879578</v>
       </c>
       <c r="G22">
-        <v>0.4285444351003674</v>
+        <v>0.291266253730484</v>
       </c>
       <c r="H22">
-        <v>0.02968192131489962</v>
+        <v>0.0201737353627962</v>
       </c>
       <c r="I22">
-        <v>3.290358271395497</v>
+        <v>2.236338285237613</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1044,28 +1044,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>1.849402464263886</v>
+        <v>1.256972400726445</v>
       </c>
       <c r="C23">
-        <v>0.06241247999999999</v>
+        <v>0.04241952</v>
       </c>
       <c r="D23">
-        <v>0.2242376873130333</v>
+        <v>0.1524062985756848</v>
       </c>
       <c r="E23">
-        <v>0.135641092801948</v>
+        <v>0.09219037681140194</v>
       </c>
       <c r="F23">
-        <v>0.2387269438262031</v>
+        <v>0.1622541255879352</v>
       </c>
       <c r="G23">
-        <v>0.3262054655241604</v>
+        <v>0.2217101334366368</v>
       </c>
       <c r="H23">
-        <v>0.03710240164362455</v>
+        <v>0.02521716920349524</v>
       </c>
       <c r="I23">
-        <v>2.873728535372856</v>
+        <v>1.953170024341599</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1073,28 +1073,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>1.94102682415501</v>
+        <v>1.31924618582341</v>
       </c>
       <c r="C24">
-        <v>0.06241247999999999</v>
+        <v>0.04241952</v>
       </c>
       <c r="D24">
-        <v>0.2004549022949842</v>
+        <v>0.1362419941812941</v>
       </c>
       <c r="E24">
-        <v>0.1297436539844719</v>
+        <v>0.08818209955873225</v>
       </c>
       <c r="F24">
-        <v>0.2228118142377895</v>
+        <v>0.1514371838820728</v>
       </c>
       <c r="G24">
-        <v>0.2878283519330827</v>
+        <v>0.1956265883264443</v>
       </c>
       <c r="H24">
-        <v>0.0742048032872491</v>
+        <v>0.05043433840699049</v>
       </c>
       <c r="I24">
-        <v>2.918482829892587</v>
+        <v>1.983587910178944</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1102,28 +1102,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>1.957942090596448</v>
+        <v>1.330742884610544</v>
       </c>
       <c r="C25">
-        <v>0.04800959999999999</v>
+        <v>0.03263039999999998</v>
       </c>
       <c r="D25">
-        <v>0.2106475244455768</v>
+        <v>0.1431695532074615</v>
       </c>
       <c r="E25">
-        <v>0.1238462151669959</v>
+        <v>0.08417382230606263</v>
       </c>
       <c r="F25">
-        <v>0.1761274341117764</v>
+        <v>0.1197074882115433</v>
       </c>
       <c r="G25">
-        <v>0.2686397951375439</v>
+        <v>0.1825848157713481</v>
       </c>
       <c r="H25">
-        <v>0.05194336230107434</v>
+        <v>0.03530403688489336</v>
       </c>
       <c r="I25">
-        <v>2.837156021759416</v>
+        <v>1.928313000991852</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1131,28 +1131,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>2.014326312067907</v>
+        <v>1.369065213900985</v>
       </c>
       <c r="C26">
-        <v>0.05161032000000002</v>
+        <v>0.03507767999999999</v>
       </c>
       <c r="D26">
-        <v>0.1868647394275278</v>
+        <v>0.1270052488130706</v>
       </c>
       <c r="E26">
-        <v>0.07076926580971196</v>
+        <v>0.04809932703203577</v>
       </c>
       <c r="F26">
-        <v>0.2249338315162445</v>
+        <v>0.1528794427761877</v>
       </c>
       <c r="G26">
-        <v>0.3581863935167252</v>
+        <v>0.2434464210284639</v>
       </c>
       <c r="H26">
-        <v>0.05936384262979923</v>
+        <v>0.0403474707255924</v>
       </c>
       <c r="I26">
-        <v>2.966054704967915</v>
+        <v>2.015920804276335</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1160,28 +1160,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>2.114408305179747</v>
+        <v>1.437087348391515</v>
       </c>
       <c r="C27">
-        <v>0.04080816</v>
+        <v>0.02773584</v>
       </c>
       <c r="D27">
-        <v>0.2616106351985391</v>
+        <v>0.1778073483382991</v>
       </c>
       <c r="E27">
-        <v>0.1415385316194239</v>
+        <v>0.09619865406407155</v>
       </c>
       <c r="F27">
-        <v>0.1888595377825072</v>
+        <v>0.1283610415762332</v>
       </c>
       <c r="G27">
-        <v>0.140716083167285</v>
+        <v>0.09563966540403944</v>
       </c>
       <c r="H27">
-        <v>0.05194336230107434</v>
+        <v>0.03530403688489336</v>
       </c>
       <c r="I27">
-        <v>2.939884615248577</v>
+        <v>1.998133934659052</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1189,28 +1189,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>2.046747239413997</v>
+        <v>1.391100553242987</v>
       </c>
       <c r="C28">
-        <v>0.06241247999999999</v>
+        <v>0.04241952</v>
       </c>
       <c r="D28">
-        <v>0.2582130944816747</v>
+        <v>0.1754981619962433</v>
       </c>
       <c r="E28">
-        <v>0.1297436539844719</v>
+        <v>0.08818209955873225</v>
       </c>
       <c r="F28">
-        <v>0.1782494513902317</v>
+        <v>0.1211497471056582</v>
       </c>
       <c r="G28">
-        <v>0.2878283519330827</v>
+        <v>0.1956265883264443</v>
       </c>
       <c r="H28">
-        <v>0.1187276852595985</v>
+        <v>0.08069494145118479</v>
       </c>
       <c r="I28">
-        <v>3.081921956463057</v>
+        <v>2.09467161168125</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1218,28 +1218,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>2.251140042248042</v>
+        <v>1.530018996920834</v>
       </c>
       <c r="C29">
-        <v>0.05401080000000002</v>
+        <v>0.0367092</v>
       </c>
       <c r="D29">
-        <v>0.2514180130479462</v>
+        <v>0.1708797893121314</v>
       </c>
       <c r="E29">
-        <v>0.1710257257068039</v>
+        <v>0.1162400403274198</v>
       </c>
       <c r="F29">
-        <v>0.1771884427510041</v>
+        <v>0.1204286176586008</v>
       </c>
       <c r="G29">
-        <v>0.1726970111598497</v>
+        <v>0.1173759529958666</v>
       </c>
       <c r="H29">
-        <v>0.1855120082181226</v>
+        <v>0.1260858460174762</v>
       </c>
       <c r="I29">
-        <v>3.262992043131768</v>
+        <v>2.217738443232329</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1247,28 +1247,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>2.82062067910979</v>
+        <v>1.917074522754281</v>
       </c>
       <c r="C30">
-        <v>0.02640528</v>
+        <v>0.01794672</v>
       </c>
       <c r="D30">
-        <v>0.1596844136926145</v>
+        <v>0.1085317580766242</v>
       </c>
       <c r="E30">
-        <v>0.2830770632388478</v>
+        <v>0.1923973081281431</v>
       </c>
       <c r="F30">
-        <v>0.1538462526879976</v>
+        <v>0.104563769823336</v>
       </c>
       <c r="G30">
-        <v>0.134319897568772</v>
+        <v>0.09129240788567404</v>
       </c>
       <c r="H30">
-        <v>0.09646624427342379</v>
+        <v>0.06556463992908768</v>
       </c>
       <c r="I30">
-        <v>3.674419830571445</v>
+        <v>2.497371126597145</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1276,28 +1276,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>2.934798727589491</v>
+        <v>1.994677239567423</v>
       </c>
       <c r="C31">
-        <v>0.03480696</v>
+        <v>0.02365704</v>
       </c>
       <c r="D31">
-        <v>0.2004549022949842</v>
+        <v>0.1362419941812941</v>
       </c>
       <c r="E31">
-        <v>0.4128207172233198</v>
+        <v>0.2805794076868753</v>
       </c>
       <c r="F31">
-        <v>0.1177719589542601</v>
+        <v>0.08004536862338138</v>
       </c>
       <c r="G31">
-        <v>0.121527526371746</v>
+        <v>0.08259789284894303</v>
       </c>
       <c r="H31">
-        <v>0.02968192131489962</v>
+        <v>0.0201737353627962</v>
       </c>
       <c r="I31">
-        <v>3.851862713748701</v>
+        <v>2.617972678270713</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1305,28 +1305,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>2.321620319087365</v>
+        <v>1.577921908533884</v>
       </c>
       <c r="C32">
-        <v>0.02520504000000001</v>
+        <v>0.01713096</v>
       </c>
       <c r="D32">
-        <v>0.1698770358432069</v>
+        <v>0.1154593171027915</v>
       </c>
       <c r="E32">
-        <v>0.2771796244213718</v>
+        <v>0.1883890308754735</v>
       </c>
       <c r="F32">
-        <v>0.08275867385975036</v>
+        <v>0.0562480968704842</v>
       </c>
       <c r="G32">
-        <v>0.09594278397769425</v>
+        <v>0.06520886277548152</v>
       </c>
       <c r="H32">
-        <v>0.06678432295852414</v>
+        <v>0.04539090456629145</v>
       </c>
       <c r="I32">
-        <v>3.039367800147913</v>
+        <v>2.065749080724406</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1334,28 +1334,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>1.943846035228582</v>
+        <v>1.321162302287933</v>
       </c>
       <c r="C33">
-        <v>0.03600720000000001</v>
+        <v>0.02447279999999999</v>
       </c>
       <c r="D33">
-        <v>0.1325040879577015</v>
+        <v>0.09005826734017743</v>
       </c>
       <c r="E33">
-        <v>0.377436084318464</v>
+        <v>0.2565297441708576</v>
       </c>
       <c r="F33">
-        <v>0.05305043196137843</v>
+        <v>0.03605647235287449</v>
       </c>
       <c r="G33">
-        <v>0.1023389695762072</v>
+        <v>0.06955612029384678</v>
       </c>
       <c r="H33">
-        <v>0.007420480328724904</v>
+        <v>0.005043433840699049</v>
       </c>
       <c r="I33">
-        <v>2.652603289371058</v>
+        <v>1.802879140286389</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1363,28 +1363,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>1.597083073179104</v>
+        <v>1.085479977151725</v>
       </c>
       <c r="C34">
-        <v>0.02400479999999999</v>
+        <v>0.01631519999999999</v>
       </c>
       <c r="D34">
-        <v>0.08833605863846766</v>
+        <v>0.06003884489345163</v>
       </c>
       <c r="E34">
-        <v>0.1828206033417559</v>
+        <v>0.1242565948327591</v>
       </c>
       <c r="F34">
-        <v>0.0339522764552822</v>
+        <v>0.02307614230583969</v>
       </c>
       <c r="G34">
-        <v>0.05116948478810361</v>
+        <v>0.03477806014692339</v>
       </c>
       <c r="H34">
-        <v>0.02968192131489962</v>
+        <v>0.0201737353627962</v>
       </c>
       <c r="I34">
-        <v>2.007048217717613</v>
+        <v>1.364118554693495</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1392,28 +1392,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>1.129094034965986</v>
+        <v>0.7674046440410695</v>
       </c>
       <c r="C35">
-        <v>0.02280456</v>
+        <v>0.01549944</v>
       </c>
       <c r="D35">
-        <v>0.08493851792160345</v>
+        <v>0.05772965855139574</v>
       </c>
       <c r="E35">
-        <v>0.1002564598970919</v>
+        <v>0.06814071329538403</v>
       </c>
       <c r="F35">
-        <v>0.02546420734146167</v>
+        <v>0.01730710672937976</v>
       </c>
       <c r="G35">
-        <v>0.08315041278066836</v>
+        <v>0.05651434773875059</v>
       </c>
       <c r="H35">
-        <v>0.007420480328724904</v>
+        <v>0.005043433840699049</v>
       </c>
       <c r="I35">
-        <v>1.453128673235536</v>
+        <v>0.9876393441966788</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1421,28 +1421,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.7104411905403958</v>
+        <v>0.482861349059549</v>
       </c>
       <c r="C36">
-        <v>0.04200840000000001</v>
+        <v>0.02855160000000001</v>
       </c>
       <c r="D36">
-        <v>0.03397540716864141</v>
+        <v>0.02309186342055831</v>
       </c>
       <c r="E36">
-        <v>0.05307694935728395</v>
+        <v>0.03607449527402685</v>
       </c>
       <c r="F36">
-        <v>0.02122017278455138</v>
+        <v>0.0144225889411498</v>
       </c>
       <c r="G36">
-        <v>0.0575656703866165</v>
+        <v>0.03912531766528881</v>
       </c>
       <c r="H36">
-        <v>0.007420480328724904</v>
+        <v>0.005043433840699049</v>
       </c>
       <c r="I36">
-        <v>0.925708270566214</v>
+        <v>0.6291706482012719</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1450,28 +1450,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.5398789205892291</v>
+        <v>0.3669363029559671</v>
       </c>
       <c r="C37">
-        <v>0.05041008000000002</v>
+        <v>0.03426192</v>
       </c>
       <c r="D37">
-        <v>0.03397540716864141</v>
+        <v>0.02309186342055831</v>
       </c>
       <c r="E37">
-        <v>0.023589755269904</v>
+        <v>0.0160331090106786</v>
       </c>
       <c r="F37">
-        <v>0.01803714686686868</v>
+        <v>0.01225920059997733</v>
       </c>
       <c r="G37">
-        <v>0.06396185598512949</v>
+        <v>0.04347257518365431</v>
       </c>
       <c r="H37">
-        <v>0.02968192131489962</v>
+        <v>0.0201737353627962</v>
       </c>
       <c r="I37">
-        <v>0.7595350871946724</v>
+        <v>0.5162287065336318</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1479,28 +1479,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.3030651904090973</v>
+        <v>0.2059825199361172</v>
       </c>
       <c r="C38">
-        <v>0.03480696</v>
+        <v>0.02365704</v>
       </c>
       <c r="D38">
-        <v>0.02718032573491313</v>
+        <v>0.01847349073644663</v>
       </c>
       <c r="E38">
-        <v>0.011794877634952</v>
+        <v>0.0080165545053393</v>
       </c>
       <c r="F38">
-        <v>0.02122017278455138</v>
+        <v>0.0144225889411498</v>
       </c>
       <c r="G38">
-        <v>0.06396185598512949</v>
+        <v>0.04347257518365431</v>
       </c>
       <c r="H38">
-        <v>0.01484096065744981</v>
+        <v>0.0100868676813981</v>
       </c>
       <c r="I38">
-        <v>0.4768703432060932</v>
+        <v>0.3241116369841053</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1508,28 +1508,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.2029831972972559</v>
+        <v>0.1379603854455854</v>
       </c>
       <c r="C39">
-        <v>0.02520504000000001</v>
+        <v>0.01713096</v>
       </c>
       <c r="D39">
-        <v>0.04077048860236971</v>
+        <v>0.02771023610466999</v>
       </c>
       <c r="E39">
-        <v>0.005897438817476</v>
+        <v>0.00400827725266965</v>
       </c>
       <c r="F39">
-        <v>0.02015916414532382</v>
+        <v>0.01370145949409231</v>
       </c>
       <c r="G39">
-        <v>0.06396185598512949</v>
+        <v>0.04347257518365431</v>
       </c>
       <c r="H39">
-        <v>0.007420480328724904</v>
+        <v>0.005043433840699049</v>
       </c>
       <c r="I39">
-        <v>0.3663976651762799</v>
+        <v>0.2490273273213707</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1537,28 +1537,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.2043928028340423</v>
+        <v>0.1389184436778465</v>
       </c>
       <c r="C40">
-        <v>0.01320264</v>
+        <v>0.008973359999999998</v>
       </c>
       <c r="D40">
-        <v>0.03737294788550554</v>
+        <v>0.02540104976261412</v>
       </c>
       <c r="E40">
-        <v>0.01769231645242799</v>
+        <v>0.01202483175800894</v>
       </c>
       <c r="F40">
-        <v>0.02228118142377896</v>
+        <v>0.01514371838820728</v>
       </c>
       <c r="G40">
-        <v>0.08315041278066836</v>
+        <v>0.05651434773875059</v>
       </c>
       <c r="H40">
-        <v>0.01484096065744981</v>
+        <v>0.0100868676813981</v>
       </c>
       <c r="I40">
-        <v>0.392933262033873</v>
+        <v>0.2670626190068255</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1566,28 +1566,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.3820031004691413</v>
+        <v>0.2596337809427337</v>
       </c>
       <c r="C41">
-        <v>0.01320264</v>
+        <v>0.008973359999999998</v>
       </c>
       <c r="D41">
-        <v>0.04756557003609799</v>
+        <v>0.03232860878878161</v>
       </c>
       <c r="E41">
-        <v>0.02948719408737998</v>
+        <v>0.02004138626334824</v>
       </c>
       <c r="F41">
-        <v>0.054111440600606</v>
+        <v>0.03677760179993198</v>
       </c>
       <c r="G41">
-        <v>0.127923711970259</v>
+        <v>0.08694515036730863</v>
       </c>
       <c r="H41">
-        <v>0.007420480328724904</v>
+        <v>0.005043433840699049</v>
       </c>
       <c r="I41">
-        <v>0.6617141374922091</v>
+        <v>0.4497433220028032</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1595,28 +1595,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>0.9923622978976959</v>
+        <v>0.6744729955117504</v>
       </c>
       <c r="C42">
-        <v>0.01320264</v>
+        <v>0.008973359999999998</v>
       </c>
       <c r="D42">
-        <v>0.08833605863846766</v>
+        <v>0.06003884489345163</v>
       </c>
       <c r="E42">
-        <v>0.2476924303339918</v>
+        <v>0.1683476446121253</v>
       </c>
       <c r="F42">
-        <v>0.1071618725619845</v>
+        <v>0.07283407415280643</v>
       </c>
       <c r="G42">
-        <v>0.236658867144979</v>
+        <v>0.160848528179521</v>
       </c>
       <c r="H42">
-        <v>0.05936384262979923</v>
+        <v>0.0403474707255924</v>
       </c>
       <c r="I42">
-        <v>1.744778009206918</v>
+        <v>1.185862918075247</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1624,28 +1624,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>1.477266602552251</v>
+        <v>1.004045027409538</v>
       </c>
       <c r="C43">
-        <v>0.006001199999999998</v>
+        <v>0.004078799999999998</v>
       </c>
       <c r="D43">
-        <v>0.1257090065239731</v>
+        <v>0.08543989465606572</v>
       </c>
       <c r="E43">
-        <v>0.4835899830330319</v>
+        <v>0.3286787347189111</v>
       </c>
       <c r="F43">
-        <v>0.1305040626249909</v>
+        <v>0.08869892198807124</v>
       </c>
       <c r="G43">
-        <v>0.4733177342899579</v>
+        <v>0.321697056359042</v>
       </c>
       <c r="H43">
-        <v>0.06678432295852414</v>
+        <v>0.04539090456629145</v>
       </c>
       <c r="I43">
-        <v>2.763172911982729</v>
+        <v>1.87802933969792</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1653,28 +1653,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>2.365318090727747</v>
+        <v>1.607621713733975</v>
       </c>
       <c r="C44">
-        <v>0.02040408</v>
+        <v>0.01386792</v>
       </c>
       <c r="D44">
-        <v>0.1596844136926145</v>
+        <v>0.1085317580766242</v>
       </c>
       <c r="E44">
-        <v>0.5425643712077919</v>
+        <v>0.3687615072456077</v>
       </c>
       <c r="F44">
-        <v>0.1549072613272251</v>
+        <v>0.1052848992703934</v>
       </c>
       <c r="G44">
-        <v>0.3453940223196995</v>
+        <v>0.2347519059917332</v>
       </c>
       <c r="H44">
-        <v>0.1335686459170483</v>
+        <v>0.09078180913258291</v>
       </c>
       <c r="I44">
-        <v>3.721840885192127</v>
+        <v>2.529601513450917</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1682,28 +1682,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>2.40055822914741</v>
+        <v>1.631573169540499</v>
       </c>
       <c r="C45">
-        <v>0.04200840000000001</v>
+        <v>0.02855160000000001</v>
       </c>
       <c r="D45">
-        <v>0.1936598208612559</v>
+        <v>0.1316236214971823</v>
       </c>
       <c r="E45">
-        <v>0.2830770632388478</v>
+        <v>0.1923973081281431</v>
       </c>
       <c r="F45">
-        <v>0.1771884427510041</v>
+        <v>0.1204286176586008</v>
       </c>
       <c r="G45">
-        <v>0.3901673215092896</v>
+        <v>0.2651827086202911</v>
       </c>
       <c r="H45">
-        <v>0.05936384262979923</v>
+        <v>0.0403474707255924</v>
       </c>
       <c r="I45">
-        <v>3.546023120137606</v>
+        <v>2.410104496170309</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1711,28 +1711,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>2.060843294781862</v>
+        <v>1.400681135565597</v>
       </c>
       <c r="C46">
-        <v>0.06481296</v>
+        <v>0.04405104</v>
       </c>
       <c r="D46">
-        <v>0.2989835830840443</v>
+        <v>0.2032083981009129</v>
       </c>
       <c r="E46">
-        <v>0.2594873079689438</v>
+        <v>0.1763641991174645</v>
       </c>
       <c r="F46">
-        <v>0.194164580978645</v>
+        <v>0.1319666888115207</v>
       </c>
       <c r="G46">
-        <v>0.4157520639033419</v>
+        <v>0.2825717386937528</v>
       </c>
       <c r="H46">
-        <v>0.05936384262979923</v>
+        <v>0.0403474707255924</v>
       </c>
       <c r="I46">
-        <v>3.353407633346635</v>
+        <v>2.27919067101484</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1740,28 +1740,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>1.533650824023711</v>
+        <v>1.04236735669998</v>
       </c>
       <c r="C47">
-        <v>0.04920983999999999</v>
+        <v>0.03344616000000001</v>
       </c>
       <c r="D47">
-        <v>0.1732745765600711</v>
+        <v>0.1177685034448473</v>
       </c>
       <c r="E47">
-        <v>0.112051337532044</v>
+        <v>0.07615726780072332</v>
       </c>
       <c r="F47">
-        <v>0.1718833995548662</v>
+        <v>0.1168229704233133</v>
       </c>
       <c r="G47">
-        <v>0.28143216633457</v>
+        <v>0.1912793308080789</v>
       </c>
       <c r="H47">
-        <v>0.03710240164362455</v>
+        <v>0.02521716920349524</v>
       </c>
       <c r="I47">
-        <v>2.358604545648887</v>
+        <v>1.603058758380438</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1769,28 +1769,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>1.609769523010181</v>
+        <v>1.094102501242073</v>
       </c>
       <c r="C48">
-        <v>0.04920983999999999</v>
+        <v>0.03344616000000001</v>
       </c>
       <c r="D48">
-        <v>0.1528893322588863</v>
+        <v>0.1039133853925124</v>
       </c>
       <c r="E48">
-        <v>0.112051337532044</v>
+        <v>0.07615726780072332</v>
       </c>
       <c r="F48">
-        <v>0.1612733131625905</v>
+        <v>0.1096116759527384</v>
       </c>
       <c r="G48">
-        <v>0.2494512383420051</v>
+        <v>0.1695430432162517</v>
       </c>
       <c r="H48">
-        <v>0.0742048032872491</v>
+        <v>0.05043433840699049</v>
       </c>
       <c r="I48">
-        <v>2.408849387592956</v>
+        <v>1.63720837201129</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1798,28 +1798,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>1.623865578378048</v>
+        <v>1.103683083564683</v>
       </c>
       <c r="C49">
-        <v>0.03840768000000001</v>
+        <v>0.02610431999999999</v>
       </c>
       <c r="D49">
-        <v>0.1630819544094788</v>
+        <v>0.11084094441868</v>
       </c>
       <c r="E49">
-        <v>0.1061538987145679</v>
+        <v>0.0721489905480537</v>
       </c>
       <c r="F49">
-        <v>0.1273210367073083</v>
+        <v>0.08653553364689878</v>
       </c>
       <c r="G49">
-        <v>0.230262681546466</v>
+        <v>0.1565012706611552</v>
       </c>
       <c r="H49">
-        <v>0.05194336230107434</v>
+        <v>0.03530403688489336</v>
       </c>
       <c r="I49">
-        <v>2.341036192056943</v>
+        <v>1.591118179724364</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_SOx.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>1.430380940765687</v>
+        <v>2.104541066422243</v>
       </c>
       <c r="C2">
-        <v>0.03915648</v>
+        <v>0.05761152000000002</v>
       </c>
       <c r="D2">
-        <v>0.147787925891573</v>
+        <v>0.2174426058793051</v>
       </c>
       <c r="E2">
-        <v>0.0721489905480537</v>
+        <v>0.1061538987145679</v>
       </c>
       <c r="F2">
-        <v>0.1449470188585555</v>
+        <v>0.2132627364847412</v>
       </c>
       <c r="G2">
-        <v>0.1478067556244247</v>
+        <v>0.2174703103494403</v>
       </c>
       <c r="H2">
-        <v>0.06556463992908768</v>
+        <v>0.09646624427342379</v>
       </c>
       <c r="I2">
-        <v>2.047792751617382</v>
+        <v>3.012948382123721</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>1.477325794146478</v>
+        <v>2.173611737724781</v>
       </c>
       <c r="C3">
-        <v>0.04323528000000001</v>
+        <v>0.06361272000000001</v>
       </c>
       <c r="D3">
-        <v>0.150097112233629</v>
+        <v>0.220840146596169</v>
       </c>
       <c r="E3">
-        <v>0.0721489905480537</v>
+        <v>0.1061538987145679</v>
       </c>
       <c r="F3">
-        <v>0.1398991127291532</v>
+        <v>0.2058356760101483</v>
       </c>
       <c r="G3">
-        <v>0.1173759529958666</v>
+        <v>0.1726970111598497</v>
       </c>
       <c r="H3">
-        <v>0.06052120608838862</v>
+        <v>0.08904576394469885</v>
       </c>
       <c r="I3">
-        <v>2.060603448741569</v>
+        <v>3.031796954150215</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>1.496486958791698</v>
+        <v>2.201803848460511</v>
       </c>
       <c r="C4">
-        <v>0.03997223999999999</v>
+        <v>0.05881176000000002</v>
       </c>
       <c r="D4">
-        <v>0.1524062985756848</v>
+        <v>0.2242376873130333</v>
       </c>
       <c r="E4">
-        <v>0.06814071329538403</v>
+        <v>0.1002564598970919</v>
       </c>
       <c r="F4">
-        <v>0.1305244299174057</v>
+        <v>0.1920425637001899</v>
       </c>
       <c r="G4">
-        <v>0.1173759529958666</v>
+        <v>0.1726970111598497</v>
       </c>
       <c r="H4">
-        <v>0.05547777224768956</v>
+        <v>0.08162528361597397</v>
       </c>
       <c r="I4">
-        <v>2.060384365823728</v>
+        <v>3.03147461414665</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>1.618160354288847</v>
+        <v>2.380823751632396</v>
       </c>
       <c r="C5">
-        <v>0.03344616000000001</v>
+        <v>0.04920983999999999</v>
       </c>
       <c r="D5">
-        <v>0.1593338576018523</v>
+        <v>0.2344303094636254</v>
       </c>
       <c r="E5">
-        <v>0.1162400403274198</v>
+        <v>0.1710257257068039</v>
       </c>
       <c r="F5">
-        <v>0.1283610415762332</v>
+        <v>0.1888595377825072</v>
       </c>
       <c r="G5">
-        <v>0.1130286954775012</v>
+        <v>0.1663008255613367</v>
       </c>
       <c r="H5">
-        <v>0.05043433840699049</v>
+        <v>0.0742048032872491</v>
       </c>
       <c r="I5">
-        <v>2.219004487678844</v>
+        <v>3.264854793433919</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>1.847136271799227</v>
+        <v>2.717719474924372</v>
       </c>
       <c r="C6">
-        <v>0.03181463999999999</v>
+        <v>0.04680936000000001</v>
       </c>
       <c r="D6">
-        <v>0.1454787395495172</v>
+        <v>0.2140450651624407</v>
       </c>
       <c r="E6">
-        <v>0.2565297441708576</v>
+        <v>0.377436084318464</v>
       </c>
       <c r="F6">
-        <v>0.1081694170586235</v>
+        <v>0.1591512958841353</v>
       </c>
       <c r="G6">
-        <v>0.05651434773875059</v>
+        <v>0.08315041278066836</v>
       </c>
       <c r="H6">
-        <v>0.04539090456629145</v>
+        <v>0.06678432295852414</v>
       </c>
       <c r="I6">
-        <v>2.491034064883267</v>
+        <v>3.665096016028605</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>1.971683841993159</v>
+        <v>2.900968194706615</v>
       </c>
       <c r="C7">
-        <v>0.0122364</v>
+        <v>0.01800360000000001</v>
       </c>
       <c r="D7">
-        <v>0.09929501270840067</v>
+        <v>0.146094250825158</v>
       </c>
       <c r="E7">
-        <v>0.2685545759288664</v>
+        <v>0.3951284007708919</v>
       </c>
       <c r="F7">
-        <v>0.06994955636457659</v>
+        <v>0.1029178380050741</v>
       </c>
       <c r="G7">
-        <v>0.05651434773875059</v>
+        <v>0.08315041278066836</v>
       </c>
       <c r="H7">
-        <v>0.05043433840699049</v>
+        <v>0.0742048032872491</v>
       </c>
       <c r="I7">
-        <v>2.528668073140743</v>
+        <v>3.720467500375657</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>1.500319191720744</v>
+        <v>2.207442270607657</v>
       </c>
       <c r="C8">
-        <v>0.01549944</v>
+        <v>0.02280456</v>
       </c>
       <c r="D8">
-        <v>0.1362419941812941</v>
+        <v>0.2004549022949842</v>
       </c>
       <c r="E8">
-        <v>0.160331090106786</v>
+        <v>0.2358975526990398</v>
       </c>
       <c r="F8">
-        <v>0.05192132018813925</v>
+        <v>0.07639262202438499</v>
       </c>
       <c r="G8">
-        <v>0.05216709022038515</v>
+        <v>0.07675422718215541</v>
       </c>
       <c r="H8">
-        <v>0.0100868676813981</v>
+        <v>0.01484096065744981</v>
       </c>
       <c r="I8">
-        <v>1.926566994098746</v>
+        <v>2.834587095465671</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>1.194698615629478</v>
+        <v>1.757778104372766</v>
       </c>
       <c r="C9">
-        <v>0.01631519999999999</v>
+        <v>0.02400479999999999</v>
       </c>
       <c r="D9">
-        <v>0.08543989465606572</v>
+        <v>0.1257090065239731</v>
       </c>
       <c r="E9">
-        <v>0.3046290712028933</v>
+        <v>0.448205350128176</v>
       </c>
       <c r="F9">
-        <v>0.02379727175289717</v>
+        <v>0.03501328509450976</v>
       </c>
       <c r="G9">
-        <v>0.06086160525711597</v>
+        <v>0.08954659837918129</v>
       </c>
       <c r="H9">
-        <v>0.01513030152209716</v>
+        <v>0.02226144098617471</v>
       </c>
       <c r="I9">
-        <v>1.700871960020548</v>
+        <v>2.50251858548478</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>0.9896741539256233</v>
+        <v>1.456122519500453</v>
       </c>
       <c r="C10">
-        <v>0.008157599999999996</v>
+        <v>0.0120024</v>
       </c>
       <c r="D10">
-        <v>0.07158477660373075</v>
+        <v>0.1053237622227884</v>
       </c>
       <c r="E10">
-        <v>0.1523145356014466</v>
+        <v>0.224102675064088</v>
       </c>
       <c r="F10">
-        <v>0.02235501285878217</v>
+        <v>0.03289126781605463</v>
       </c>
       <c r="G10">
-        <v>0.07390337781221233</v>
+        <v>0.1087351551747202</v>
       </c>
       <c r="H10">
-        <v>0.005043433840699049</v>
+        <v>0.007420480328724904</v>
       </c>
       <c r="I10">
-        <v>1.323032890642494</v>
+        <v>1.946598260106829</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>0.7032147424795812</v>
+        <v>1.034650464001291</v>
       </c>
       <c r="C11">
-        <v>0.01631519999999999</v>
+        <v>0.02400479999999999</v>
       </c>
       <c r="D11">
-        <v>0.03694698147289326</v>
+        <v>0.05436065146982626</v>
       </c>
       <c r="E11">
-        <v>0.0721489905480537</v>
+        <v>0.1061538987145679</v>
       </c>
       <c r="F11">
-        <v>0.02451840119995466</v>
+        <v>0.03607429373373736</v>
       </c>
       <c r="G11">
-        <v>0.05216709022038515</v>
+        <v>0.07675422718215541</v>
       </c>
       <c r="H11">
-        <v>0.0201737353627962</v>
+        <v>0.02968192131489962</v>
       </c>
       <c r="I11">
-        <v>0.925485141283664</v>
+        <v>1.361680256416477</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.4320842627497158</v>
+        <v>0.6357320970907115</v>
       </c>
       <c r="C12">
-        <v>0.01631519999999999</v>
+        <v>0.02400479999999999</v>
       </c>
       <c r="D12">
-        <v>0.02078267707850249</v>
+        <v>0.03057786645177726</v>
       </c>
       <c r="E12">
-        <v>0.03607449527402685</v>
+        <v>0.05307694935728395</v>
       </c>
       <c r="F12">
-        <v>0.01370145949409231</v>
+        <v>0.02015916414532382</v>
       </c>
       <c r="G12">
-        <v>0.03912531766528881</v>
+        <v>0.0575656703866165</v>
       </c>
       <c r="H12">
-        <v>0.0100868676813981</v>
+        <v>0.01484096065744981</v>
       </c>
       <c r="I12">
-        <v>0.5681702799430244</v>
+        <v>0.8359575080891629</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.3065786343235231</v>
+        <v>0.4510737717716796</v>
       </c>
       <c r="C13">
-        <v>0.02447279999999999</v>
+        <v>0.03600720000000001</v>
       </c>
       <c r="D13">
-        <v>0.02309186342055831</v>
+        <v>0.03397540716864141</v>
       </c>
       <c r="E13">
-        <v>0.02404966351601789</v>
+        <v>0.03538463290485598</v>
       </c>
       <c r="F13">
-        <v>0.0144225889411498</v>
+        <v>0.02122017278455138</v>
       </c>
       <c r="G13">
-        <v>0.04781983270201972</v>
+        <v>0.07035804158364249</v>
       </c>
       <c r="I13">
-        <v>0.4404353829032688</v>
+        <v>0.6480192262133708</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.2021502870070732</v>
+        <v>0.2974267682619512</v>
       </c>
       <c r="C14">
-        <v>0.02610431999999999</v>
+        <v>0.03840768000000001</v>
       </c>
       <c r="D14">
-        <v>0.013855118052335</v>
+        <v>0.02038524430118486</v>
       </c>
       <c r="E14">
-        <v>0.01202483175800894</v>
+        <v>0.01769231645242799</v>
       </c>
       <c r="F14">
-        <v>0.01586484783526477</v>
+        <v>0.02334219006300651</v>
       </c>
       <c r="G14">
-        <v>0.06955612029384678</v>
+        <v>0.1023389695762072</v>
       </c>
       <c r="H14">
-        <v>0.005043433840699049</v>
+        <v>0.007420480328724904</v>
       </c>
       <c r="I14">
-        <v>0.3445989587872277</v>
+        <v>0.5070136489835028</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.1542473753940227</v>
+        <v>0.2269464914226263</v>
       </c>
       <c r="C15">
-        <v>0.01957824</v>
+        <v>0.02880576000000001</v>
       </c>
       <c r="D15">
-        <v>0.02540104976261412</v>
+        <v>0.03737294788550554</v>
       </c>
       <c r="E15">
-        <v>0.0160331090106786</v>
+        <v>0.023589755269904</v>
       </c>
       <c r="F15">
-        <v>0.01225920059997733</v>
+        <v>0.01803714686686868</v>
       </c>
       <c r="G15">
-        <v>0.06086160525711597</v>
+        <v>0.08954659837918129</v>
       </c>
       <c r="H15">
-        <v>0.0100868676813981</v>
+        <v>0.01484096065744981</v>
       </c>
       <c r="I15">
-        <v>0.2984674477058068</v>
+        <v>0.4391396604815356</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.1408345601423686</v>
+        <v>0.2072120139076154</v>
       </c>
       <c r="C16">
-        <v>0.007341840000000001</v>
+        <v>0.01080216</v>
       </c>
       <c r="D16">
-        <v>0.03001942244672582</v>
+        <v>0.04416802931923383</v>
       </c>
       <c r="E16">
-        <v>0.01202483175800894</v>
+        <v>0.01769231645242799</v>
       </c>
       <c r="F16">
-        <v>0.01153807115291984</v>
+        <v>0.0169761382276411</v>
       </c>
       <c r="G16">
-        <v>0.05216709022038515</v>
+        <v>0.07675422718215541</v>
       </c>
       <c r="H16">
-        <v>0.005043433840699049</v>
+        <v>0.007420480328724904</v>
       </c>
       <c r="I16">
-        <v>0.2589692495611074</v>
+        <v>0.3810253654177986</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,28 +870,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.2835852367492591</v>
+        <v>0.4172432388888039</v>
       </c>
       <c r="C17">
-        <v>0.01060488</v>
+        <v>0.01560312</v>
       </c>
       <c r="D17">
-        <v>0.04618372684111663</v>
+        <v>0.06795081433728281</v>
       </c>
       <c r="E17">
-        <v>0.01202483175800894</v>
+        <v>0.01769231645242799</v>
       </c>
       <c r="F17">
-        <v>0.02668178954112714</v>
+        <v>0.03925731965142001</v>
       </c>
       <c r="G17">
-        <v>0.07825063533057762</v>
+        <v>0.115131340773233</v>
       </c>
       <c r="H17">
-        <v>0.01513030152209716</v>
+        <v>0.02226144098617471</v>
       </c>
       <c r="I17">
-        <v>0.4724614017421866</v>
+        <v>0.6951395910893422</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>0.6246539674341781</v>
+        <v>0.9190628099847983</v>
       </c>
       <c r="C18">
-        <v>0.006526079999999998</v>
+        <v>0.009601920000000003</v>
       </c>
       <c r="D18">
-        <v>0.07389396294578651</v>
+        <v>0.1087213029396525</v>
       </c>
       <c r="E18">
-        <v>0.1923973081281431</v>
+        <v>0.2830770632388478</v>
       </c>
       <c r="F18">
-        <v>0.06129600299988661</v>
+        <v>0.09018573433434338</v>
       </c>
       <c r="G18">
-        <v>0.1434594981060592</v>
+        <v>0.2110741247509275</v>
       </c>
       <c r="H18">
-        <v>0.01513030152209716</v>
+        <v>0.02226144098617471</v>
       </c>
       <c r="I18">
-        <v>1.117357121136151</v>
+        <v>1.643984396234744</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,28 +928,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>1.09985085063564</v>
+        <v>1.618227156230901</v>
       </c>
       <c r="C19">
-        <v>0.01142064</v>
+        <v>0.01680336</v>
       </c>
       <c r="D19">
-        <v>0.1362419941812941</v>
+        <v>0.2004549022949842</v>
       </c>
       <c r="E19">
-        <v>0.396819448014295</v>
+        <v>0.5838464429301239</v>
       </c>
       <c r="F19">
-        <v>0.1038426403762785</v>
+        <v>0.15278524404877</v>
       </c>
       <c r="G19">
-        <v>0.2564881935835601</v>
+        <v>0.3773749503122643</v>
       </c>
       <c r="H19">
-        <v>0.05043433840699049</v>
+        <v>0.0742048032872491</v>
       </c>
       <c r="I19">
-        <v>2.055098105198058</v>
+        <v>3.023696859104292</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -957,28 +957,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>1.48978055116587</v>
+        <v>2.191936609703005</v>
       </c>
       <c r="C20">
-        <v>0.0122364</v>
+        <v>0.01800360000000001</v>
       </c>
       <c r="D20">
-        <v>0.1200776897869033</v>
+        <v>0.1766721172769353</v>
       </c>
       <c r="E20">
-        <v>0.3447118437295899</v>
+        <v>0.5071797383029358</v>
       </c>
       <c r="F20">
-        <v>0.1009581225880486</v>
+        <v>0.1485412094918596</v>
       </c>
       <c r="G20">
-        <v>0.2217101334366368</v>
+        <v>0.3262054655241604</v>
       </c>
       <c r="H20">
-        <v>0.05043433840699049</v>
+        <v>0.0742048032872491</v>
       </c>
       <c r="I20">
-        <v>2.339909079114039</v>
+        <v>3.442743543586146</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -986,28 +986,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>1.181285800377826</v>
+        <v>1.738043626857753</v>
       </c>
       <c r="C21">
-        <v>0.01305216</v>
+        <v>0.01920384000000001</v>
       </c>
       <c r="D21">
-        <v>0.06003884489345163</v>
+        <v>0.08833605863846766</v>
       </c>
       <c r="E21">
-        <v>0.1442979810961074</v>
+        <v>0.2123077974291358</v>
       </c>
       <c r="F21">
-        <v>0.0793242391763239</v>
+        <v>0.1167109503150326</v>
       </c>
       <c r="G21">
-        <v>0.160848528179521</v>
+        <v>0.236658867144979</v>
       </c>
       <c r="H21">
-        <v>0.0201737353627962</v>
+        <v>0.02968192131489962</v>
       </c>
       <c r="I21">
-        <v>1.659021289086026</v>
+        <v>2.440943061700268</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1015,28 +1015,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>1.398765019101076</v>
+        <v>2.058024083708289</v>
       </c>
       <c r="C22">
-        <v>0.04078799999999998</v>
+        <v>0.06001199999999998</v>
       </c>
       <c r="D22">
-        <v>0.1870440937065221</v>
+        <v>0.2752007980659953</v>
       </c>
       <c r="E22">
-        <v>0.1483062583487771</v>
+        <v>0.218205236246612</v>
       </c>
       <c r="F22">
-        <v>0.1499949249879578</v>
+        <v>0.2206897969593343</v>
       </c>
       <c r="G22">
-        <v>0.291266253730484</v>
+        <v>0.4285444351003674</v>
       </c>
       <c r="H22">
-        <v>0.0201737353627962</v>
+        <v>0.02968192131489962</v>
       </c>
       <c r="I22">
-        <v>2.236338285237613</v>
+        <v>3.290358271395497</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1044,28 +1044,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>1.256972400726445</v>
+        <v>1.849402464263886</v>
       </c>
       <c r="C23">
-        <v>0.04241952</v>
+        <v>0.06241247999999999</v>
       </c>
       <c r="D23">
-        <v>0.1524062985756848</v>
+        <v>0.2242376873130333</v>
       </c>
       <c r="E23">
-        <v>0.09219037681140194</v>
+        <v>0.135641092801948</v>
       </c>
       <c r="F23">
-        <v>0.1622541255879352</v>
+        <v>0.2387269438262031</v>
       </c>
       <c r="G23">
-        <v>0.2217101334366368</v>
+        <v>0.3262054655241604</v>
       </c>
       <c r="H23">
-        <v>0.02521716920349524</v>
+        <v>0.03710240164362455</v>
       </c>
       <c r="I23">
-        <v>1.953170024341599</v>
+        <v>2.873728535372856</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1073,28 +1073,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>1.31924618582341</v>
+        <v>1.94102682415501</v>
       </c>
       <c r="C24">
-        <v>0.04241952</v>
+        <v>0.06241247999999999</v>
       </c>
       <c r="D24">
-        <v>0.1362419941812941</v>
+        <v>0.2004549022949842</v>
       </c>
       <c r="E24">
-        <v>0.08818209955873225</v>
+        <v>0.1297436539844719</v>
       </c>
       <c r="F24">
-        <v>0.1514371838820728</v>
+        <v>0.2228118142377895</v>
       </c>
       <c r="G24">
-        <v>0.1956265883264443</v>
+        <v>0.2878283519330827</v>
       </c>
       <c r="H24">
-        <v>0.05043433840699049</v>
+        <v>0.0742048032872491</v>
       </c>
       <c r="I24">
-        <v>1.983587910178944</v>
+        <v>2.918482829892587</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1102,28 +1102,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>1.330742884610544</v>
+        <v>1.957942090596448</v>
       </c>
       <c r="C25">
-        <v>0.03263039999999998</v>
+        <v>0.04800959999999999</v>
       </c>
       <c r="D25">
-        <v>0.1431695532074615</v>
+        <v>0.2106475244455768</v>
       </c>
       <c r="E25">
-        <v>0.08417382230606263</v>
+        <v>0.1238462151669959</v>
       </c>
       <c r="F25">
-        <v>0.1197074882115433</v>
+        <v>0.1761274341117764</v>
       </c>
       <c r="G25">
-        <v>0.1825848157713481</v>
+        <v>0.2686397951375439</v>
       </c>
       <c r="H25">
-        <v>0.03530403688489336</v>
+        <v>0.05194336230107434</v>
       </c>
       <c r="I25">
-        <v>1.928313000991852</v>
+        <v>2.837156021759416</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1131,28 +1131,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>1.369065213900985</v>
+        <v>2.014326312067907</v>
       </c>
       <c r="C26">
-        <v>0.03507767999999999</v>
+        <v>0.05161032000000002</v>
       </c>
       <c r="D26">
-        <v>0.1270052488130706</v>
+        <v>0.1868647394275278</v>
       </c>
       <c r="E26">
-        <v>0.04809932703203577</v>
+        <v>0.07076926580971196</v>
       </c>
       <c r="F26">
-        <v>0.1528794427761877</v>
+        <v>0.2249338315162445</v>
       </c>
       <c r="G26">
-        <v>0.2434464210284639</v>
+        <v>0.3581863935167252</v>
       </c>
       <c r="H26">
-        <v>0.0403474707255924</v>
+        <v>0.05936384262979923</v>
       </c>
       <c r="I26">
-        <v>2.015920804276335</v>
+        <v>2.966054704967915</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1160,28 +1160,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>1.437087348391515</v>
+        <v>2.114408305179747</v>
       </c>
       <c r="C27">
-        <v>0.02773584</v>
+        <v>0.04080816</v>
       </c>
       <c r="D27">
-        <v>0.1778073483382991</v>
+        <v>0.2616106351985391</v>
       </c>
       <c r="E27">
-        <v>0.09619865406407155</v>
+        <v>0.1415385316194239</v>
       </c>
       <c r="F27">
-        <v>0.1283610415762332</v>
+        <v>0.1888595377825072</v>
       </c>
       <c r="G27">
-        <v>0.09563966540403944</v>
+        <v>0.140716083167285</v>
       </c>
       <c r="H27">
-        <v>0.03530403688489336</v>
+        <v>0.05194336230107434</v>
       </c>
       <c r="I27">
-        <v>1.998133934659052</v>
+        <v>2.939884615248577</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1189,28 +1189,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>1.391100553242987</v>
+        <v>2.046747239413997</v>
       </c>
       <c r="C28">
-        <v>0.04241952</v>
+        <v>0.06241247999999999</v>
       </c>
       <c r="D28">
-        <v>0.1754981619962433</v>
+        <v>0.2582130944816747</v>
       </c>
       <c r="E28">
-        <v>0.08818209955873225</v>
+        <v>0.1297436539844719</v>
       </c>
       <c r="F28">
-        <v>0.1211497471056582</v>
+        <v>0.1782494513902317</v>
       </c>
       <c r="G28">
-        <v>0.1956265883264443</v>
+        <v>0.2878283519330827</v>
       </c>
       <c r="H28">
-        <v>0.08069494145118479</v>
+        <v>0.1187276852595985</v>
       </c>
       <c r="I28">
-        <v>2.09467161168125</v>
+        <v>3.081921956463057</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1218,28 +1218,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>1.530018996920834</v>
+        <v>2.251140042248042</v>
       </c>
       <c r="C29">
-        <v>0.0367092</v>
+        <v>0.05401080000000002</v>
       </c>
       <c r="D29">
-        <v>0.1708797893121314</v>
+        <v>0.2514180130479462</v>
       </c>
       <c r="E29">
-        <v>0.1162400403274198</v>
+        <v>0.1710257257068039</v>
       </c>
       <c r="F29">
-        <v>0.1204286176586008</v>
+        <v>0.1771884427510041</v>
       </c>
       <c r="G29">
-        <v>0.1173759529958666</v>
+        <v>0.1726970111598497</v>
       </c>
       <c r="H29">
-        <v>0.1260858460174762</v>
+        <v>0.1855120082181226</v>
       </c>
       <c r="I29">
-        <v>2.217738443232329</v>
+        <v>3.262992043131768</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1247,28 +1247,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>1.917074522754281</v>
+        <v>2.82062067910979</v>
       </c>
       <c r="C30">
-        <v>0.01794672</v>
+        <v>0.02640528</v>
       </c>
       <c r="D30">
-        <v>0.1085317580766242</v>
+        <v>0.1596844136926145</v>
       </c>
       <c r="E30">
-        <v>0.1923973081281431</v>
+        <v>0.2830770632388478</v>
       </c>
       <c r="F30">
-        <v>0.104563769823336</v>
+        <v>0.1538462526879976</v>
       </c>
       <c r="G30">
-        <v>0.09129240788567404</v>
+        <v>0.134319897568772</v>
       </c>
       <c r="H30">
-        <v>0.06556463992908768</v>
+        <v>0.09646624427342379</v>
       </c>
       <c r="I30">
-        <v>2.497371126597145</v>
+        <v>3.674419830571445</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1276,28 +1276,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>1.994677239567423</v>
+        <v>2.934798727589491</v>
       </c>
       <c r="C31">
-        <v>0.02365704</v>
+        <v>0.03480696</v>
       </c>
       <c r="D31">
-        <v>0.1362419941812941</v>
+        <v>0.2004549022949842</v>
       </c>
       <c r="E31">
-        <v>0.2805794076868753</v>
+        <v>0.4128207172233198</v>
       </c>
       <c r="F31">
-        <v>0.08004536862338138</v>
+        <v>0.1177719589542601</v>
       </c>
       <c r="G31">
-        <v>0.08259789284894303</v>
+        <v>0.121527526371746</v>
       </c>
       <c r="H31">
-        <v>0.0201737353627962</v>
+        <v>0.02968192131489962</v>
       </c>
       <c r="I31">
-        <v>2.617972678270713</v>
+        <v>3.851862713748701</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1305,28 +1305,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>1.577921908533884</v>
+        <v>2.321620319087365</v>
       </c>
       <c r="C32">
-        <v>0.01713096</v>
+        <v>0.02520504000000001</v>
       </c>
       <c r="D32">
-        <v>0.1154593171027915</v>
+        <v>0.1698770358432069</v>
       </c>
       <c r="E32">
-        <v>0.1883890308754735</v>
+        <v>0.2771796244213718</v>
       </c>
       <c r="F32">
-        <v>0.0562480968704842</v>
+        <v>0.08275867385975036</v>
       </c>
       <c r="G32">
-        <v>0.06520886277548152</v>
+        <v>0.09594278397769425</v>
       </c>
       <c r="H32">
-        <v>0.04539090456629145</v>
+        <v>0.06678432295852414</v>
       </c>
       <c r="I32">
-        <v>2.065749080724406</v>
+        <v>3.039367800147913</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1334,28 +1334,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>1.321162302287933</v>
+        <v>1.943846035228582</v>
       </c>
       <c r="C33">
-        <v>0.02447279999999999</v>
+        <v>0.03600720000000001</v>
       </c>
       <c r="D33">
-        <v>0.09005826734017743</v>
+        <v>0.1325040879577015</v>
       </c>
       <c r="E33">
-        <v>0.2565297441708576</v>
+        <v>0.377436084318464</v>
       </c>
       <c r="F33">
-        <v>0.03605647235287449</v>
+        <v>0.05305043196137843</v>
       </c>
       <c r="G33">
-        <v>0.06955612029384678</v>
+        <v>0.1023389695762072</v>
       </c>
       <c r="H33">
-        <v>0.005043433840699049</v>
+        <v>0.007420480328724904</v>
       </c>
       <c r="I33">
-        <v>1.802879140286389</v>
+        <v>2.652603289371058</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1363,28 +1363,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>1.085479977151725</v>
+        <v>1.597083073179104</v>
       </c>
       <c r="C34">
-        <v>0.01631519999999999</v>
+        <v>0.02400479999999999</v>
       </c>
       <c r="D34">
-        <v>0.06003884489345163</v>
+        <v>0.08833605863846766</v>
       </c>
       <c r="E34">
-        <v>0.1242565948327591</v>
+        <v>0.1828206033417559</v>
       </c>
       <c r="F34">
-        <v>0.02307614230583969</v>
+        <v>0.0339522764552822</v>
       </c>
       <c r="G34">
-        <v>0.03477806014692339</v>
+        <v>0.05116948478810361</v>
       </c>
       <c r="H34">
-        <v>0.0201737353627962</v>
+        <v>0.02968192131489962</v>
       </c>
       <c r="I34">
-        <v>1.364118554693495</v>
+        <v>2.007048217717613</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1392,28 +1392,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>0.7674046440410695</v>
+        <v>1.129094034965986</v>
       </c>
       <c r="C35">
-        <v>0.01549944</v>
+        <v>0.02280456</v>
       </c>
       <c r="D35">
-        <v>0.05772965855139574</v>
+        <v>0.08493851792160345</v>
       </c>
       <c r="E35">
-        <v>0.06814071329538403</v>
+        <v>0.1002564598970919</v>
       </c>
       <c r="F35">
-        <v>0.01730710672937976</v>
+        <v>0.02546420734146167</v>
       </c>
       <c r="G35">
-        <v>0.05651434773875059</v>
+        <v>0.08315041278066836</v>
       </c>
       <c r="H35">
-        <v>0.005043433840699049</v>
+        <v>0.007420480328724904</v>
       </c>
       <c r="I35">
-        <v>0.9876393441966788</v>
+        <v>1.453128673235536</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1421,28 +1421,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.482861349059549</v>
+        <v>0.7104411905403958</v>
       </c>
       <c r="C36">
-        <v>0.02855160000000001</v>
+        <v>0.04200840000000001</v>
       </c>
       <c r="D36">
-        <v>0.02309186342055831</v>
+        <v>0.03397540716864141</v>
       </c>
       <c r="E36">
-        <v>0.03607449527402685</v>
+        <v>0.05307694935728395</v>
       </c>
       <c r="F36">
-        <v>0.0144225889411498</v>
+        <v>0.02122017278455138</v>
       </c>
       <c r="G36">
-        <v>0.03912531766528881</v>
+        <v>0.0575656703866165</v>
       </c>
       <c r="H36">
-        <v>0.005043433840699049</v>
+        <v>0.007420480328724904</v>
       </c>
       <c r="I36">
-        <v>0.6291706482012719</v>
+        <v>0.925708270566214</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1450,28 +1450,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.3669363029559671</v>
+        <v>0.5398789205892291</v>
       </c>
       <c r="C37">
-        <v>0.03426192</v>
+        <v>0.05041008000000002</v>
       </c>
       <c r="D37">
-        <v>0.02309186342055831</v>
+        <v>0.03397540716864141</v>
       </c>
       <c r="E37">
-        <v>0.0160331090106786</v>
+        <v>0.023589755269904</v>
       </c>
       <c r="F37">
-        <v>0.01225920059997733</v>
+        <v>0.01803714686686868</v>
       </c>
       <c r="G37">
-        <v>0.04347257518365431</v>
+        <v>0.06396185598512949</v>
       </c>
       <c r="H37">
-        <v>0.0201737353627962</v>
+        <v>0.02968192131489962</v>
       </c>
       <c r="I37">
-        <v>0.5162287065336318</v>
+        <v>0.7595350871946724</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1479,28 +1479,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.2059825199361172</v>
+        <v>0.3030651904090973</v>
       </c>
       <c r="C38">
-        <v>0.02365704</v>
+        <v>0.03480696</v>
       </c>
       <c r="D38">
-        <v>0.01847349073644663</v>
+        <v>0.02718032573491313</v>
       </c>
       <c r="E38">
-        <v>0.0080165545053393</v>
+        <v>0.011794877634952</v>
       </c>
       <c r="F38">
-        <v>0.0144225889411498</v>
+        <v>0.02122017278455138</v>
       </c>
       <c r="G38">
-        <v>0.04347257518365431</v>
+        <v>0.06396185598512949</v>
       </c>
       <c r="H38">
-        <v>0.0100868676813981</v>
+        <v>0.01484096065744981</v>
       </c>
       <c r="I38">
-        <v>0.3241116369841053</v>
+        <v>0.4768703432060932</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1508,28 +1508,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.1379603854455854</v>
+        <v>0.2029831972972559</v>
       </c>
       <c r="C39">
-        <v>0.01713096</v>
+        <v>0.02520504000000001</v>
       </c>
       <c r="D39">
-        <v>0.02771023610466999</v>
+        <v>0.04077048860236971</v>
       </c>
       <c r="E39">
-        <v>0.00400827725266965</v>
+        <v>0.005897438817476</v>
       </c>
       <c r="F39">
-        <v>0.01370145949409231</v>
+        <v>0.02015916414532382</v>
       </c>
       <c r="G39">
-        <v>0.04347257518365431</v>
+        <v>0.06396185598512949</v>
       </c>
       <c r="H39">
-        <v>0.005043433840699049</v>
+        <v>0.007420480328724904</v>
       </c>
       <c r="I39">
-        <v>0.2490273273213707</v>
+        <v>0.3663976651762799</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1537,28 +1537,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.1389184436778465</v>
+        <v>0.2043928028340423</v>
       </c>
       <c r="C40">
-        <v>0.008973359999999998</v>
+        <v>0.01320264</v>
       </c>
       <c r="D40">
-        <v>0.02540104976261412</v>
+        <v>0.03737294788550554</v>
       </c>
       <c r="E40">
-        <v>0.01202483175800894</v>
+        <v>0.01769231645242799</v>
       </c>
       <c r="F40">
-        <v>0.01514371838820728</v>
+        <v>0.02228118142377896</v>
       </c>
       <c r="G40">
-        <v>0.05651434773875059</v>
+        <v>0.08315041278066836</v>
       </c>
       <c r="H40">
-        <v>0.0100868676813981</v>
+        <v>0.01484096065744981</v>
       </c>
       <c r="I40">
-        <v>0.2670626190068255</v>
+        <v>0.392933262033873</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1566,28 +1566,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.2596337809427337</v>
+        <v>0.3820031004691413</v>
       </c>
       <c r="C41">
-        <v>0.008973359999999998</v>
+        <v>0.01320264</v>
       </c>
       <c r="D41">
-        <v>0.03232860878878161</v>
+        <v>0.04756557003609799</v>
       </c>
       <c r="E41">
-        <v>0.02004138626334824</v>
+        <v>0.02948719408737998</v>
       </c>
       <c r="F41">
-        <v>0.03677760179993198</v>
+        <v>0.054111440600606</v>
       </c>
       <c r="G41">
-        <v>0.08694515036730863</v>
+        <v>0.127923711970259</v>
       </c>
       <c r="H41">
-        <v>0.005043433840699049</v>
+        <v>0.007420480328724904</v>
       </c>
       <c r="I41">
-        <v>0.4497433220028032</v>
+        <v>0.6617141374922091</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1595,28 +1595,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>0.6744729955117504</v>
+        <v>0.9923622978976959</v>
       </c>
       <c r="C42">
-        <v>0.008973359999999998</v>
+        <v>0.01320264</v>
       </c>
       <c r="D42">
-        <v>0.06003884489345163</v>
+        <v>0.08833605863846766</v>
       </c>
       <c r="E42">
-        <v>0.1683476446121253</v>
+        <v>0.2476924303339918</v>
       </c>
       <c r="F42">
-        <v>0.07283407415280643</v>
+        <v>0.1071618725619845</v>
       </c>
       <c r="G42">
-        <v>0.160848528179521</v>
+        <v>0.236658867144979</v>
       </c>
       <c r="H42">
-        <v>0.0403474707255924</v>
+        <v>0.05936384262979923</v>
       </c>
       <c r="I42">
-        <v>1.185862918075247</v>
+        <v>1.744778009206918</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1624,28 +1624,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>1.004045027409538</v>
+        <v>1.477266602552251</v>
       </c>
       <c r="C43">
-        <v>0.004078799999999998</v>
+        <v>0.006001199999999998</v>
       </c>
       <c r="D43">
-        <v>0.08543989465606572</v>
+        <v>0.1257090065239731</v>
       </c>
       <c r="E43">
-        <v>0.3286787347189111</v>
+        <v>0.4835899830330319</v>
       </c>
       <c r="F43">
-        <v>0.08869892198807124</v>
+        <v>0.1305040626249909</v>
       </c>
       <c r="G43">
-        <v>0.321697056359042</v>
+        <v>0.4733177342899579</v>
       </c>
       <c r="H43">
-        <v>0.04539090456629145</v>
+        <v>0.06678432295852414</v>
       </c>
       <c r="I43">
-        <v>1.87802933969792</v>
+        <v>2.763172911982729</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1653,28 +1653,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>1.607621713733975</v>
+        <v>2.365318090727747</v>
       </c>
       <c r="C44">
-        <v>0.01386792</v>
+        <v>0.02040408</v>
       </c>
       <c r="D44">
-        <v>0.1085317580766242</v>
+        <v>0.1596844136926145</v>
       </c>
       <c r="E44">
-        <v>0.3687615072456077</v>
+        <v>0.5425643712077919</v>
       </c>
       <c r="F44">
-        <v>0.1052848992703934</v>
+        <v>0.1549072613272251</v>
       </c>
       <c r="G44">
-        <v>0.2347519059917332</v>
+        <v>0.3453940223196995</v>
       </c>
       <c r="H44">
-        <v>0.09078180913258291</v>
+        <v>0.1335686459170483</v>
       </c>
       <c r="I44">
-        <v>2.529601513450917</v>
+        <v>3.721840885192127</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1682,28 +1682,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>1.631573169540499</v>
+        <v>2.40055822914741</v>
       </c>
       <c r="C45">
-        <v>0.02855160000000001</v>
+        <v>0.04200840000000001</v>
       </c>
       <c r="D45">
-        <v>0.1316236214971823</v>
+        <v>0.1936598208612559</v>
       </c>
       <c r="E45">
-        <v>0.1923973081281431</v>
+        <v>0.2830770632388478</v>
       </c>
       <c r="F45">
-        <v>0.1204286176586008</v>
+        <v>0.1771884427510041</v>
       </c>
       <c r="G45">
-        <v>0.2651827086202911</v>
+        <v>0.3901673215092896</v>
       </c>
       <c r="H45">
-        <v>0.0403474707255924</v>
+        <v>0.05936384262979923</v>
       </c>
       <c r="I45">
-        <v>2.410104496170309</v>
+        <v>3.546023120137606</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1711,28 +1711,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>1.400681135565597</v>
+        <v>2.060843294781862</v>
       </c>
       <c r="C46">
-        <v>0.04405104</v>
+        <v>0.06481296</v>
       </c>
       <c r="D46">
-        <v>0.2032083981009129</v>
+        <v>0.2989835830840443</v>
       </c>
       <c r="E46">
-        <v>0.1763641991174645</v>
+        <v>0.2594873079689438</v>
       </c>
       <c r="F46">
-        <v>0.1319666888115207</v>
+        <v>0.194164580978645</v>
       </c>
       <c r="G46">
-        <v>0.2825717386937528</v>
+        <v>0.4157520639033419</v>
       </c>
       <c r="H46">
-        <v>0.0403474707255924</v>
+        <v>0.05936384262979923</v>
       </c>
       <c r="I46">
-        <v>2.27919067101484</v>
+        <v>3.353407633346635</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1740,28 +1740,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>1.04236735669998</v>
+        <v>1.533650824023711</v>
       </c>
       <c r="C47">
-        <v>0.03344616000000001</v>
+        <v>0.04920983999999999</v>
       </c>
       <c r="D47">
-        <v>0.1177685034448473</v>
+        <v>0.1732745765600711</v>
       </c>
       <c r="E47">
-        <v>0.07615726780072332</v>
+        <v>0.112051337532044</v>
       </c>
       <c r="F47">
-        <v>0.1168229704233133</v>
+        <v>0.1718833995548662</v>
       </c>
       <c r="G47">
-        <v>0.1912793308080789</v>
+        <v>0.28143216633457</v>
       </c>
       <c r="H47">
-        <v>0.02521716920349524</v>
+        <v>0.03710240164362455</v>
       </c>
       <c r="I47">
-        <v>1.603058758380438</v>
+        <v>2.358604545648887</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1769,28 +1769,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>1.094102501242073</v>
+        <v>1.609769523010181</v>
       </c>
       <c r="C48">
-        <v>0.03344616000000001</v>
+        <v>0.04920983999999999</v>
       </c>
       <c r="D48">
-        <v>0.1039133853925124</v>
+        <v>0.1528893322588863</v>
       </c>
       <c r="E48">
-        <v>0.07615726780072332</v>
+        <v>0.112051337532044</v>
       </c>
       <c r="F48">
-        <v>0.1096116759527384</v>
+        <v>0.1612733131625905</v>
       </c>
       <c r="G48">
-        <v>0.1695430432162517</v>
+        <v>0.2494512383420051</v>
       </c>
       <c r="H48">
-        <v>0.05043433840699049</v>
+        <v>0.0742048032872491</v>
       </c>
       <c r="I48">
-        <v>1.63720837201129</v>
+        <v>2.408849387592956</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1798,28 +1798,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>1.103683083564683</v>
+        <v>1.623865578378048</v>
       </c>
       <c r="C49">
-        <v>0.02610431999999999</v>
+        <v>0.03840768000000001</v>
       </c>
       <c r="D49">
-        <v>0.11084094441868</v>
+        <v>0.1630819544094788</v>
       </c>
       <c r="E49">
-        <v>0.0721489905480537</v>
+        <v>0.1061538987145679</v>
       </c>
       <c r="F49">
-        <v>0.08653553364689878</v>
+        <v>0.1273210367073083</v>
       </c>
       <c r="G49">
-        <v>0.1565012706611552</v>
+        <v>0.230262681546466</v>
       </c>
       <c r="H49">
-        <v>0.03530403688489336</v>
+        <v>0.05194336230107434</v>
       </c>
       <c r="I49">
-        <v>1.591118179724364</v>
+        <v>2.341036192056943</v>
       </c>
     </row>
   </sheetData>
